--- a/trunk/ผ้าป่า2555.xlsx
+++ b/trunk/ผ้าป่า2555.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="19035" windowHeight="8445" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="19035" windowHeight="8385" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="สรุปผ้าป่า 2555" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="k.เพียรทอง" sheetId="3" r:id="rId5"/>
     <sheet name="k.วันชัย" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -384,9 +384,6 @@
     <t>แสงอรุณวิชชุ</t>
   </si>
   <si>
-    <t>ยอดวิศิษฏ์ศักดิ์และครอบครัว</t>
-  </si>
-  <si>
     <t>คุณ เสน่ห์</t>
   </si>
   <si>
@@ -834,37 +831,40 @@
     <t>คุณ โรจนะ</t>
   </si>
   <si>
-    <t xml:space="preserve"> กุลสวัสดิ์</t>
-  </si>
-  <si>
     <t>นางสาว วิมนตา</t>
   </si>
   <si>
-    <t xml:space="preserve"> วิมุขมนต์  </t>
-  </si>
-  <si>
     <t>คุณ วรรณ</t>
   </si>
   <si>
-    <t xml:space="preserve"> ฟักช้าง  </t>
-  </si>
-  <si>
     <t xml:space="preserve">คุณ ณฐกมล </t>
   </si>
   <si>
-    <t xml:space="preserve"> ทองทิพย์    </t>
-  </si>
-  <si>
     <t>นางสาว สุพัตรา</t>
   </si>
   <si>
-    <t xml:space="preserve"> สร้อยเจดีย์    </t>
-  </si>
-  <si>
     <t xml:space="preserve">กิมหงษ์ </t>
   </si>
   <si>
     <t>นางสาว มณีนุช</t>
+  </si>
+  <si>
+    <t>ยอดวิศิษฎ์ศักดิ์และครอบครัว</t>
+  </si>
+  <si>
+    <t>กุลสวัสดิ์</t>
+  </si>
+  <si>
+    <t xml:space="preserve">วิมุขมนต์  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ฟักช้าง  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ทองทิพย์    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">สร้อยเจดีย์    </t>
   </si>
 </sst>
 </file>
@@ -896,7 +896,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -918,6 +918,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,7 +955,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -995,6 +1001,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2105,8 +2114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
@@ -2178,7 +2187,7 @@
         <v>68</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -2194,7 +2203,7 @@
         <v>70</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -2354,7 +2363,7 @@
         <v>93</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>121</v>
+        <v>276</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -2591,10 +2600,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -2607,10 +2616,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -2623,7 +2632,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="4"/>
@@ -2637,10 +2646,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>158</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -2653,10 +2662,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -2669,7 +2678,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>69</v>
@@ -2685,10 +2694,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4">
@@ -2701,10 +2710,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4">
@@ -2717,10 +2726,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -2733,10 +2742,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -2749,10 +2758,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -2765,10 +2774,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -2782,9 +2791,18 @@
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6" ht="21" customHeight="1">
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
+      <c r="D43" s="20">
+        <f>SUM(D2:D42)</f>
+        <v>4</v>
+      </c>
+      <c r="E43" s="20">
+        <f t="shared" ref="E43:F43" si="0">SUM(E2:E42)</f>
+        <v>6</v>
+      </c>
+      <c r="F43" s="20">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
     </row>
     <row r="44" spans="1:6" ht="21" customHeight="1">
       <c r="D44" s="4"/>
@@ -2934,10 +2952,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" t="s">
         <v>149</v>
-      </c>
-      <c r="C2" t="s">
-        <v>150</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -2948,10 +2966,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" t="s">
         <v>151</v>
-      </c>
-      <c r="C3" t="s">
-        <v>152</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -2962,10 +2980,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" t="s">
         <v>153</v>
-      </c>
-      <c r="C4" t="s">
-        <v>154</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2976,10 +2994,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" t="s">
         <v>155</v>
-      </c>
-      <c r="C5" t="s">
-        <v>156</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -3039,7 +3057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -3077,10 +3095,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" t="s">
         <v>129</v>
-      </c>
-      <c r="C2" t="s">
-        <v>130</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -3092,10 +3110,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" t="s">
         <v>131</v>
-      </c>
-      <c r="C3" t="s">
-        <v>132</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -3106,10 +3124,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -3120,10 +3138,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" t="s">
         <v>134</v>
-      </c>
-      <c r="C5" t="s">
-        <v>135</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -3134,10 +3152,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" t="s">
         <v>137</v>
-      </c>
-      <c r="C6" t="s">
-        <v>138</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -3148,10 +3166,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" t="s">
         <v>139</v>
-      </c>
-      <c r="C7" t="s">
-        <v>140</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -3162,10 +3180,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" t="s">
         <v>141</v>
-      </c>
-      <c r="C8" t="s">
-        <v>142</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -3176,10 +3194,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" t="s">
         <v>143</v>
-      </c>
-      <c r="C9" t="s">
-        <v>144</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -3190,10 +3208,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" t="s">
         <v>145</v>
-      </c>
-      <c r="C10" t="s">
-        <v>146</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -3204,10 +3222,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" t="s">
         <v>147</v>
-      </c>
-      <c r="C11" t="s">
-        <v>148</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -3222,7 +3240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F373"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -3424,7 +3442,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="7" customFormat="1" ht="27.75" customHeight="1">
       <c r="A1" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -3434,7 +3452,7 @@
     </row>
     <row r="2" spans="1:6" s="7" customFormat="1" ht="27.75" customHeight="1">
       <c r="A2" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -3444,359 +3462,359 @@
     </row>
     <row r="3" spans="1:6" s="17" customFormat="1" ht="23.25" customHeight="1">
       <c r="A3" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>78</v>
       </c>
       <c r="C3" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>164</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A4" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="C4" s="9" t="s">
         <v>167</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>168</v>
       </c>
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:6" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="C5" s="9" t="s">
         <v>170</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>171</v>
       </c>
       <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:6" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A6" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="9" t="s">
         <v>173</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>174</v>
       </c>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:6" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A7" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="C7" s="9" t="s">
         <v>176</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>177</v>
       </c>
       <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:6" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A8" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="C8" s="9" t="s">
         <v>179</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>180</v>
       </c>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A9" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="C9" s="9" t="s">
         <v>182</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>183</v>
       </c>
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:6" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A10" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>185</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>186</v>
       </c>
       <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:6" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A11" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>187</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>188</v>
       </c>
       <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:6" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A12" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="C12" s="9" t="s">
         <v>190</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>191</v>
       </c>
       <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:6" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A13" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="C13" s="9" t="s">
         <v>193</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>194</v>
       </c>
       <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:6" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A14" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="C14" s="9" t="s">
         <v>196</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>197</v>
       </c>
       <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:6" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A15" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="C15" s="9" t="s">
         <v>199</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>200</v>
       </c>
       <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:6" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A16" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="C16" s="9" t="s">
         <v>202</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>203</v>
       </c>
       <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A17" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="C17" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="D17" s="9" t="s">
         <v>206</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A18" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="C18" s="9" t="s">
         <v>209</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>210</v>
       </c>
       <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A19" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="C19" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="D19" s="9" t="s">
         <v>213</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A20" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="C20" s="9" t="s">
         <v>216</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>217</v>
       </c>
       <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A21" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="C21" s="9" t="s">
         <v>219</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>220</v>
       </c>
       <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A22" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="C22" s="9" t="s">
         <v>222</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>223</v>
       </c>
       <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A23" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="C23" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="D23" s="9" t="s">
         <v>226</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A24" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="C24" s="9" t="s">
         <v>229</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>230</v>
       </c>
       <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A25" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="C25" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>233</v>
-      </c>
       <c r="D25" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A26" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="C26" s="9" t="s">
         <v>235</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>236</v>
       </c>
       <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A27" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="C27" s="9" t="s">
         <v>238</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>239</v>
       </c>
       <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A28" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="C28" s="9" t="s">
         <v>241</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>242</v>
       </c>
       <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A29" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="C29" s="9" t="s">
         <v>244</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>245</v>
       </c>
       <c r="D29" s="9"/>
     </row>
     <row r="30" spans="1:4" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A30" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="C30" s="9" t="s">
         <v>247</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>248</v>
       </c>
       <c r="D30" s="9"/>
     </row>
     <row r="31" spans="1:4" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A31" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="C31" s="9" t="s">
         <v>250</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>251</v>
       </c>
       <c r="D31" s="9"/>
     </row>
@@ -4839,7 +4857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -4877,10 +4895,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C2" t="s">
         <v>252</v>
-      </c>
-      <c r="C2" t="s">
-        <v>253</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -4893,10 +4911,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -4909,10 +4927,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -4925,10 +4943,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -4941,10 +4959,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C6" t="s">
         <v>257</v>
-      </c>
-      <c r="C6" t="s">
-        <v>258</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -4957,10 +4975,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C7" t="s">
         <v>259</v>
-      </c>
-      <c r="C7" t="s">
-        <v>260</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -4973,10 +4991,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C8" t="s">
         <v>261</v>
-      </c>
-      <c r="C8" t="s">
-        <v>262</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -4989,10 +5007,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C9" t="s">
         <v>263</v>
-      </c>
-      <c r="C9" t="s">
-        <v>264</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -5005,10 +5023,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>264</v>
+      </c>
+      <c r="C10" t="s">
         <v>265</v>
-      </c>
-      <c r="C10" t="s">
-        <v>266</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -5021,10 +5039,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>266</v>
+      </c>
+      <c r="C11" t="s">
         <v>267</v>
-      </c>
-      <c r="C11" t="s">
-        <v>268</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -5037,7 +5055,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="B14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C14" s="5">
         <v>20</v>

--- a/trunk/ผ้าป่า2555.xlsx
+++ b/trunk/ผ้าป่า2555.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="19035" windowHeight="8385" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="240" windowWidth="19035" windowHeight="8325" tabRatio="695"/>
   </bookViews>
   <sheets>
     <sheet name="สรุปผ้าป่า 2555" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,18 @@
     <sheet name="k.ปูน้อยสารคาม" sheetId="5" r:id="rId4"/>
     <sheet name="k.เพียรทอง" sheetId="3" r:id="rId5"/>
     <sheet name="k.วันชัย" sheetId="6" r:id="rId6"/>
+    <sheet name="k.ปะทุง" sheetId="7" r:id="rId7"/>
+    <sheet name="k.หนิง" sheetId="8" r:id="rId8"/>
+    <sheet name="k.สายคุณวิลัดดา" sheetId="9" r:id="rId9"/>
+    <sheet name="k.ดาวเดือน" sheetId="10" r:id="rId10"/>
+    <sheet name="k.บัว" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="489">
   <si>
     <t>ลำดับ</t>
   </si>
@@ -141,18 +146,12 @@
     <t>สาย k.บัว โรงงาน</t>
   </si>
   <si>
-    <t>จอย  สมบูรณ์</t>
-  </si>
-  <si>
     <t>สาย k.หนิง+k.ราย</t>
   </si>
   <si>
     <t>สาย k.ยุพิน+k.เปอร์</t>
   </si>
   <si>
-    <t>สาย k.สมบูรณ์</t>
-  </si>
-  <si>
     <t>สาย k. ไทย</t>
   </si>
   <si>
@@ -264,9 +263,6 @@
     <t>คุณ วิชัย</t>
   </si>
   <si>
-    <t xml:space="preserve">คุณ </t>
-  </si>
-  <si>
     <t>ธรรมวรากรกุลและครอบครัว</t>
   </si>
   <si>
@@ -504,9 +500,6 @@
     <t>รายชื่อ ผู้ร่วมทำบุญ ถวายผ้าป่า วัดบ้านโพนไฮ จ.มุกดาหาร</t>
   </si>
   <si>
-    <t>สาย เพียนทอง สุขรี</t>
-  </si>
-  <si>
     <t>ลำดับที่</t>
   </si>
   <si>
@@ -865,13 +858,646 @@
   </si>
   <si>
     <t xml:space="preserve">สร้อยเจดีย์    </t>
+  </si>
+  <si>
+    <t>คุณ วิษณุ</t>
+  </si>
+  <si>
+    <t>คุณ มิตรชัย</t>
+  </si>
+  <si>
+    <t>คุณ มณีรัตน์</t>
+  </si>
+  <si>
+    <t>ศรีนวน</t>
+  </si>
+  <si>
+    <t>คุณ สมควร</t>
+  </si>
+  <si>
+    <t>น้ำสระ</t>
+  </si>
+  <si>
+    <t>คุณ มณเฑียร</t>
+  </si>
+  <si>
+    <t>กินโนนกอก</t>
+  </si>
+  <si>
+    <t>คุณ ศุภกร  อันนอก และคุณธิติมา พรหมนิตย์</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ส.ต.อ.พงษ์พนิช  </t>
+  </si>
+  <si>
+    <t>พิมาย</t>
+  </si>
+  <si>
+    <t>คุณ นาวี</t>
+  </si>
+  <si>
+    <t xml:space="preserve">โอดสวย </t>
+  </si>
+  <si>
+    <t>คุณ อรุณ</t>
+  </si>
+  <si>
+    <t>หล่ำสุข</t>
+  </si>
+  <si>
+    <t xml:space="preserve">คุณ วินันท์ </t>
+  </si>
+  <si>
+    <t>สุคำภา</t>
+  </si>
+  <si>
+    <t xml:space="preserve">คุณ สิระยุธ   </t>
+  </si>
+  <si>
+    <t>สมธรัตน์</t>
+  </si>
+  <si>
+    <t>คุณ โกวิทย์ แข็งแรง และคุณเกวดี จิตรภักดี</t>
+  </si>
+  <si>
+    <t>คุณ เทอดไท  เชื้อคำฮดและคุณอุษา  เชื้อคำฮด พร้อมครอบครัว</t>
+  </si>
+  <si>
+    <t>คุณ ปะทุง  สมบูรณ์และคุณจันทร์เพ็ญ  ปานยืน พร้อมครอบครัว</t>
+  </si>
+  <si>
+    <t>คุณ ไพศาล</t>
+  </si>
+  <si>
+    <t>โคตรโนนกอก</t>
+  </si>
+  <si>
+    <t xml:space="preserve">สาย แลนด์แอนด์เฮ้าส์ จำกัด (มหาชน)  </t>
+  </si>
+  <si>
+    <t>สาย aisoft จำกัด (คุณการณ์)</t>
+  </si>
+  <si>
+    <t>สาย จังหวัดมหาสารคาม (คุณปูน้อย)</t>
+  </si>
+  <si>
+    <t>สายคุณ เพียนทอง สุขรี</t>
+  </si>
+  <si>
+    <t>สายคุณวันชัย คำมงคุณ</t>
+  </si>
+  <si>
+    <t>สายรามคำแหง (คุณปะทุง สมบูรณ์)</t>
+  </si>
+  <si>
+    <t>สายบริษัทไทยมี-โก้ (คุณหนิง)</t>
+  </si>
+  <si>
+    <t>คุณ อารนุช-จตุรงค์-จุฬาลักษณ์</t>
+  </si>
+  <si>
+    <t>ฝ่าชัยภูมิ อุทิศให้เจ้ากรรมนายเวร</t>
+  </si>
+  <si>
+    <t>คุณ ลอย</t>
+  </si>
+  <si>
+    <t>คุณ มณีนุช-ธีรยุทธ</t>
+  </si>
+  <si>
+    <t>สระโพธิ์ทอง และครอบครัว</t>
+  </si>
+  <si>
+    <t>คุณ สำราญลิต</t>
+  </si>
+  <si>
+    <t>นุยับรัมย์ อุทิศให้เจ้ากรรมนายเวร</t>
+  </si>
+  <si>
+    <t>คุณ ปริษณา</t>
+  </si>
+  <si>
+    <t>คุณ เสาร์-กุบดี-โสภา</t>
+  </si>
+  <si>
+    <t>กระสายทอง อุทิศให้เจ้ากรรมนายเวร</t>
+  </si>
+  <si>
+    <t>สมาโชติ อุทิศให้เจ้ากรรมนายเวร</t>
+  </si>
+  <si>
+    <t>คุณ บุดษลา</t>
+  </si>
+  <si>
+    <t>คุณ ปัทมา</t>
+  </si>
+  <si>
+    <t>คำอ่อน และครอบครัว</t>
+  </si>
+  <si>
+    <t>คุณ สุพัตรา</t>
+  </si>
+  <si>
+    <t>คุณ รุจิรา</t>
+  </si>
+  <si>
+    <t>ทุนทอง และครอบครัว</t>
+  </si>
+  <si>
+    <t>คุณ มยุรีย์</t>
+  </si>
+  <si>
+    <t>พันธ์จินดา และครอบครัว</t>
+  </si>
+  <si>
+    <t>ด.ช. ณัฐวุฒิ</t>
+  </si>
+  <si>
+    <t>มาสันเทียะ และครอบครัว</t>
+  </si>
+  <si>
+    <t>คุณ กริด-จิตราพร</t>
+  </si>
+  <si>
+    <t>ศรีจันชมา และครอบครัว</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ด.ญ. ประภาวดี  </t>
+  </si>
+  <si>
+    <t>คงโต และครอบครัว</t>
+  </si>
+  <si>
+    <t>คุณ พัชราพรณ์</t>
+  </si>
+  <si>
+    <t>สิทธิเลาะ และครอบครัว</t>
+  </si>
+  <si>
+    <t>คุณ สมจิตร</t>
+  </si>
+  <si>
+    <t>โคตรสูงเนิน และครอบครัว</t>
+  </si>
+  <si>
+    <t>คุณ ปิยะภรณ์</t>
+  </si>
+  <si>
+    <t>อุ่อ้น และครอบครัว</t>
+  </si>
+  <si>
+    <t>คุณ สมนึก</t>
+  </si>
+  <si>
+    <t>ทองดอนจ้าว และครอบครัว</t>
+  </si>
+  <si>
+    <t>อาระทรงศักดิ์  อุทิศให้เจ้ากรรมนายเวร</t>
+  </si>
+  <si>
+    <t>คุณ รันดร</t>
+  </si>
+  <si>
+    <t>ศรีชาแอน และครอบครัว</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>คุณ กรรยา</t>
+  </si>
+  <si>
+    <t>ทับน้ำ และครอบครัว</t>
+  </si>
+  <si>
+    <t>คุณ เกศราพร</t>
+  </si>
+  <si>
+    <t>รวมกูล และครอบครัว</t>
+  </si>
+  <si>
+    <t>คุณ ณัฐชา</t>
+  </si>
+  <si>
+    <t>แสงทับทิม และครอบครัวอุทิศให้เจ้ากรรมนายเวร</t>
+  </si>
+  <si>
+    <t>คุณ นิตยา</t>
+  </si>
+  <si>
+    <t>ผลวิลัย และครอบครัว</t>
+  </si>
+  <si>
+    <t>ด.ช. วงศกร</t>
+  </si>
+  <si>
+    <t>เข็มทอง และครอบครัว</t>
+  </si>
+  <si>
+    <t>คุณ วรัญญา</t>
+  </si>
+  <si>
+    <t>สืบศักดิ์ และครอบครัว</t>
+  </si>
+  <si>
+    <t>คุณ เกษร</t>
+  </si>
+  <si>
+    <t>จันทร์อำไพร และครอบครัว</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ด.ญ. แพรวิไล   </t>
+  </si>
+  <si>
+    <t>ศีรีเกศ และครอบครัว</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ด.ญ. เขมจิรา- ด.ญ. เขมวิกา  </t>
+  </si>
+  <si>
+    <t>สุขอำ และครอบครัว</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ด.ช. ชนะพล </t>
+  </si>
+  <si>
+    <t>ต่างมงคล อุทิศให้เจ้ากรรมนายเวร</t>
+  </si>
+  <si>
+    <t>คุณ กฤษณะ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">คุณ นิภาพร </t>
+  </si>
+  <si>
+    <t>ชมที</t>
+  </si>
+  <si>
+    <t>วงศ์กระโซ่และครอบครัว</t>
+  </si>
+  <si>
+    <t>สอนคำ และครอบครัว</t>
+  </si>
+  <si>
+    <t>คุณ อคพงษ์</t>
+  </si>
+  <si>
+    <t>จันทร์งาม และครอบครัว</t>
+  </si>
+  <si>
+    <t>แก้วเคนมาและครอบครัว</t>
+  </si>
+  <si>
+    <t xml:space="preserve">คุณ วรรลก-จันทร์ดี-มัฑนา </t>
+  </si>
+  <si>
+    <t>บูลสาร และครอบครัว</t>
+  </si>
+  <si>
+    <t>รอง</t>
+  </si>
+  <si>
+    <t>บริษัท เอไอซอฟต์ จำกัด</t>
+  </si>
+  <si>
+    <t xml:space="preserve">คุณ นเรศร์ </t>
+  </si>
+  <si>
+    <t>เวชสวัสดิ์</t>
+  </si>
+  <si>
+    <t>นางสาว นันธินีย์</t>
+  </si>
+  <si>
+    <t>วังนันท์</t>
+  </si>
+  <si>
+    <t>นางสาว สาคร</t>
+  </si>
+  <si>
+    <t>เหล็กแย้ม</t>
+  </si>
+  <si>
+    <t>นางสาว สิริญญา</t>
+  </si>
+  <si>
+    <t>พลวัตร</t>
+  </si>
+  <si>
+    <t>สายคุณวิลัดดา</t>
+  </si>
+  <si>
+    <t>คุณ วิลัดดา</t>
+  </si>
+  <si>
+    <t>สิริโรจน์กาญจนา และครอบครัว</t>
+  </si>
+  <si>
+    <t>คุณ เฉลียว</t>
+  </si>
+  <si>
+    <t>เชื้อคำฮด และครอบครัว</t>
+  </si>
+  <si>
+    <t>คุณ อำพล-คุณขนิตรา</t>
+  </si>
+  <si>
+    <t>คำโสภา</t>
+  </si>
+  <si>
+    <t>พันธ์บุบผาและครอบครัว</t>
+  </si>
+  <si>
+    <t>ทาทอง และครอบครัว</t>
+  </si>
+  <si>
+    <t xml:space="preserve">คุณ คมสัน </t>
+  </si>
+  <si>
+    <t>มัญสา และครอบครัว</t>
+  </si>
+  <si>
+    <t xml:space="preserve">คุณ มนัส </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> เดชน้อย และครอบครัว</t>
+  </si>
+  <si>
+    <t>คุณ อรพรรณ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ฮกซุ่นเฮง</t>
+  </si>
+  <si>
+    <t>คุณ วิภา</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> พระคุณอำนวย </t>
+  </si>
+  <si>
+    <t xml:space="preserve">คุณ บุหงา </t>
+  </si>
+  <si>
+    <t>เทียมตะขบ และครอบครัว</t>
+  </si>
+  <si>
+    <t xml:space="preserve">คุณอนิรุจน์ </t>
+  </si>
+  <si>
+    <t>ปานทผลิน</t>
+  </si>
+  <si>
+    <t>คุณสมจินตน์</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> วงคำจันทร์ และครอบครัว</t>
+  </si>
+  <si>
+    <t>คุณ ณรงค์-คุณวิลาวรรณ-ด.ญ.เมธาพร พุฒทอง</t>
+  </si>
+  <si>
+    <t>บำรุงถิ่น และครอบครัว</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> บุญเชิญ และครอบครัว</t>
+  </si>
+  <si>
+    <t>คุณ สมัย</t>
+  </si>
+  <si>
+    <t xml:space="preserve">คุณ วิรัญญา </t>
+  </si>
+  <si>
+    <t>คุณ สมเพชร - คุณช่อ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> บุญเทพ และครอบครัว</t>
+  </si>
+  <si>
+    <t>คุณ พงษ์พรรณ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ศรีโคตร</t>
+  </si>
+  <si>
+    <t xml:space="preserve">คุณ จิตรรุ่งเรือง </t>
+  </si>
+  <si>
+    <t>บัวแสน</t>
+  </si>
+  <si>
+    <t>สายอนุสาวรีย์ชัยสมรภูมิและหมู่บ้านเศรฐกิจ</t>
+  </si>
+  <si>
+    <t>น.ส.ดาวเดือน    โซ่เมืองแซะและนายธานี  โคตรนาแก</t>
+  </si>
+  <si>
+    <t>คุณพ่อกา        โซ่เมืองแซะ</t>
+  </si>
+  <si>
+    <t>คุณสำเริง</t>
+  </si>
+  <si>
+    <t>อินสุข</t>
+  </si>
+  <si>
+    <t>คุณแม่คูณ        วงษ์กระโซ่</t>
+  </si>
+  <si>
+    <t>คุณสมนึก</t>
+  </si>
+  <si>
+    <t>น.ส รสิตา       โซ่เมืองแซะ</t>
+  </si>
+  <si>
+    <t>คุณสุเมธ</t>
+  </si>
+  <si>
+    <t>ด.ช. วีระชัย      กองเกิน</t>
+  </si>
+  <si>
+    <t>คุณนงลักษณ์</t>
+  </si>
+  <si>
+    <t>นายวิสุทธิ์        เจียมพฤกษ์วัฒนา</t>
+  </si>
+  <si>
+    <t>นางกาญจนา  ด.ญ. พิชญา  เปาอินทร์</t>
+  </si>
+  <si>
+    <t>นางฉัตร์ระวี    เจียมพฤกษ์วัฒนา</t>
+  </si>
+  <si>
+    <t>นายทวีศักดิ์-นางสุกัญญา   สุจินันท์กุลและครอบครัว</t>
+  </si>
+  <si>
+    <t>ด.ช.กิติวัฒน์        เจียมพฤกษ์วัฒนา</t>
+  </si>
+  <si>
+    <t>น.ส.ก้อนทิพย์  เหมือนสังข์  ด.ช.นะโม-นายประจวบ  พันละออง</t>
+  </si>
+  <si>
+    <t>น.ส. ยลรดี        บุญโยน</t>
+  </si>
+  <si>
+    <t>น.ส.ดารารัตน์  ไชยเสนาและครอบครัว</t>
+  </si>
+  <si>
+    <t>นายนิกร           ชะอวยตะคุ</t>
+  </si>
+  <si>
+    <t>คุณปรัชญา            ตั้งศักดิ์สกุล</t>
+  </si>
+  <si>
+    <t>น.ส.ดวน          โฮนทุมมา</t>
+  </si>
+  <si>
+    <t>คุณสุพรรณษา        คำแดง</t>
+  </si>
+  <si>
+    <t>น.ส.น้ำอ้อย      ศรีวิเชียรและครอบครัว</t>
+  </si>
+  <si>
+    <t>คุณนิตยา          นาหนองขาม</t>
+  </si>
+  <si>
+    <t>นางลัดดา           ลือชัยราม</t>
+  </si>
+  <si>
+    <t>คุณชนาพร  เลิกเปลี่ยน</t>
+  </si>
+  <si>
+    <t>นายธนา             อินขำ</t>
+  </si>
+  <si>
+    <t>คุณมณีรัตน์  ศิริบัว</t>
+  </si>
+  <si>
+    <t>นายนิตย์           คล้ายเมือง</t>
+  </si>
+  <si>
+    <t>นายวิชัย            คล้ายเมือง</t>
+  </si>
+  <si>
+    <t>ด.ญ.กิตติกร         ใจตรง</t>
+  </si>
+  <si>
+    <t>น.ส.นวลจันทร์  ใจตรง</t>
+  </si>
+  <si>
+    <t>น.ส.วิภา  พะชะ</t>
+  </si>
+  <si>
+    <t>คุณลักขณา  นาคเงินและครอบครัว</t>
+  </si>
+  <si>
+    <t>คุณประภาพร  จรูญฉาย</t>
+  </si>
+  <si>
+    <t>คุณอ้วน  มั่นทรัพย์เพิ่มพูน</t>
+  </si>
+  <si>
+    <t>ด.ญ.น้ำฝน    มั่นทรัพย์เพิ่มพูน</t>
+  </si>
+  <si>
+    <t>คุณคำเผื่อ  มูลเมือง</t>
+  </si>
+  <si>
+    <t>นายสันติ  โพธิ์ดีและครอบครัว</t>
+  </si>
+  <si>
+    <t>นายอดิศร  คลุมเครือ</t>
+  </si>
+  <si>
+    <t>นายนที  สังข์ทอง</t>
+  </si>
+  <si>
+    <t>ด.ญ. เพ็ญพิชา   สังข์ทอง(พิธชา)</t>
+  </si>
+  <si>
+    <t>นายเฉลิม    สังข์ทอง(จรูณ   สังข์ทองและครอบครัว)</t>
+  </si>
+  <si>
+    <t>นายเทียนชัย  จินดา</t>
+  </si>
+  <si>
+    <t>นายสามภพ  โพธ์นางและครอบครัว</t>
+  </si>
+  <si>
+    <t>นายไพรัช  ศรีมูล</t>
+  </si>
+  <si>
+    <t>คุณ พนิตอนงค์</t>
+  </si>
+  <si>
+    <t>คุณ กิตตพร</t>
+  </si>
+  <si>
+    <t>ไกรสุนย์</t>
+  </si>
+  <si>
+    <t>คุณ มนตรี</t>
+  </si>
+  <si>
+    <t>แสงรัตน์</t>
+  </si>
+  <si>
+    <t>ธาตุลม</t>
+  </si>
+  <si>
+    <t>ด.ช. อภิชาต</t>
+  </si>
+  <si>
+    <t>คุณ กัลยา</t>
+  </si>
+  <si>
+    <t>แฉกพิมาย</t>
+  </si>
+  <si>
+    <t>คุณ ประกาศิต</t>
+  </si>
+  <si>
+    <t>โค้งวัฒนะ</t>
+  </si>
+  <si>
+    <t>คุณ นุจรี</t>
+  </si>
+  <si>
+    <t>พรมจาโร</t>
+  </si>
+  <si>
+    <t>ด.ช. ธนกร</t>
+  </si>
+  <si>
+    <t>พะอบเหล็ก</t>
+  </si>
+  <si>
+    <t>คุณ ธนวรรณ</t>
+  </si>
+  <si>
+    <t>อนุญาหงส์</t>
+  </si>
+  <si>
+    <t>คุณ ปรียานันท์</t>
+  </si>
+  <si>
+    <t>แสงฟ้า</t>
+  </si>
+  <si>
+    <t>สายคุณพนิตอนงค์ (คุณบัว)</t>
+  </si>
+  <si>
+    <t>สาย k.ปะทุง</t>
+  </si>
+  <si>
+    <t>จอย  ปะทุง</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -895,8 +1521,49 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Angsana New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Cordia New"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Angsana New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="25"/>
+      <name val="Angsana New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Angsana New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <name val="Angsana New"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -911,12 +1578,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -924,6 +1585,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,10 +1637,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -985,29 +1671,103 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1308,8 +2068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1359,62 +2119,62 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:10" s="49" customFormat="1">
+      <c r="A2" s="49">
+        <v>1</v>
+      </c>
+      <c r="B2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" s="13" customFormat="1">
-      <c r="A3" s="13">
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+    </row>
+    <row r="3" spans="1:10" s="49" customFormat="1">
+      <c r="A3" s="49">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18">
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50">
         <v>50</v>
       </c>
-      <c r="H3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" s="13" customFormat="1">
-      <c r="A4" s="13">
+      <c r="H3" s="50"/>
+    </row>
+    <row r="4" spans="1:10" s="49" customFormat="1">
+      <c r="A4" s="49">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="13" t="s">
+      <c r="B4" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>22</v>
@@ -1430,7 +2190,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>23</v>
@@ -1446,7 +2206,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>24</v>
@@ -1462,7 +2222,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>25</v>
@@ -1473,28 +2233,30 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="3">
+    <row r="9" spans="1:10" s="49" customFormat="1">
+      <c r="A9" s="49">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50">
+        <v>10</v>
+      </c>
+      <c r="H9" s="50"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>28</v>
@@ -1510,7 +2272,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>29</v>
@@ -1526,7 +2288,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>30</v>
@@ -1537,28 +2299,28 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="3">
+    <row r="13" spans="1:10" s="49" customFormat="1">
+      <c r="A13" s="49">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>32</v>
@@ -1569,44 +2331,46 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:10" s="13" customFormat="1">
-      <c r="A15" s="13">
+    <row r="15" spans="1:10" s="49" customFormat="1">
+      <c r="A15" s="49">
         <v>14</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="13" t="s">
+      <c r="B15" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="3">
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50">
+        <v>10</v>
+      </c>
+      <c r="H15" s="50"/>
+    </row>
+    <row r="16" spans="1:10" s="49" customFormat="1">
+      <c r="A16" s="49">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>35</v>
@@ -1617,46 +2381,46 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:10" s="13" customFormat="1">
-      <c r="A18" s="13">
+    <row r="18" spans="1:10" s="49" customFormat="1">
+      <c r="A18" s="49">
         <v>17</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="13" t="s">
+      <c r="B18" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18">
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50">
         <v>20</v>
       </c>
-      <c r="H18" s="18"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="3">
+      <c r="H18" s="50"/>
+    </row>
+    <row r="19" spans="1:10" s="49" customFormat="1">
+      <c r="A19" s="49">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="B19" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>38</v>
@@ -1784,10 +2548,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>40</v>
+        <v>488</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>43</v>
+        <v>487</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -1795,23 +2559,23 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="3">
+    <row r="29" spans="1:10" s="49" customFormat="1">
+      <c r="A29" s="49">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="49" t="s">
+        <v>488</v>
+      </c>
+      <c r="C29" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="J29" s="3" t="s">
-        <v>64</v>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="J29" s="49" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1819,10 +2583,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>40</v>
+        <v>488</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -1830,7 +2594,7 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="J30" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1838,10 +2602,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>40</v>
+        <v>488</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -1854,10 +2618,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>40</v>
+        <v>488</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -1870,10 +2634,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -1886,10 +2650,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -1902,10 +2666,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -1918,10 +2682,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -1934,10 +2698,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -1950,10 +2714,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -1966,10 +2730,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -1982,10 +2746,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -1998,7 +2762,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -2011,7 +2775,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>27</v>
@@ -2024,7 +2788,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="C43" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -2034,7 +2798,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="C44" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -2044,7 +2808,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="C45" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -2052,7 +2816,7 @@
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="J45" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2106,21 +2870,832 @@
       <c r="H50" s="4"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="23.25">
+      <c r="A1" s="42" t="s">
+        <v>420</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+    </row>
+    <row r="2" spans="1:9" ht="23.25">
+      <c r="A2" s="39"/>
+      <c r="B2" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+    </row>
+    <row r="3" spans="1:9" ht="23.25">
+      <c r="A3" s="39">
+        <v>1</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>421</v>
+      </c>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+    </row>
+    <row r="4" spans="1:9" ht="36">
+      <c r="A4" s="39"/>
+      <c r="B4" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+    </row>
+    <row r="5" spans="1:9" ht="23.25">
+      <c r="A5" s="39">
+        <v>1</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38">
+        <v>32</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>423</v>
+      </c>
+      <c r="H5" s="41" t="s">
+        <v>424</v>
+      </c>
+      <c r="I5" s="39"/>
+    </row>
+    <row r="6" spans="1:9" ht="23.25">
+      <c r="A6" s="39">
+        <v>2</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>425</v>
+      </c>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38">
+        <v>33</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>426</v>
+      </c>
+      <c r="H6" s="41" t="s">
+        <v>424</v>
+      </c>
+      <c r="I6" s="39"/>
+    </row>
+    <row r="7" spans="1:9" ht="23.25">
+      <c r="A7" s="39">
+        <v>3</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>427</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38">
+        <v>34</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>428</v>
+      </c>
+      <c r="H7" s="41" t="s">
+        <v>424</v>
+      </c>
+      <c r="I7" s="39"/>
+    </row>
+    <row r="8" spans="1:9" ht="23.25">
+      <c r="A8" s="39">
+        <v>4</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>429</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38">
+        <v>35</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>430</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>424</v>
+      </c>
+      <c r="I8" s="39"/>
+    </row>
+    <row r="9" spans="1:9" ht="23.25">
+      <c r="A9" s="39">
+        <v>5</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>431</v>
+      </c>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38">
+        <v>36</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>432</v>
+      </c>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+    </row>
+    <row r="10" spans="1:9" ht="23.25">
+      <c r="A10" s="39">
+        <v>6</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>433</v>
+      </c>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38">
+        <v>37</v>
+      </c>
+      <c r="G10" s="39" t="s">
+        <v>434</v>
+      </c>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+    </row>
+    <row r="11" spans="1:9" ht="23.25">
+      <c r="A11" s="39">
+        <v>7</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>435</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38">
+        <v>38</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>436</v>
+      </c>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+    </row>
+    <row r="12" spans="1:9" ht="23.25">
+      <c r="A12" s="39">
+        <v>8</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>437</v>
+      </c>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38">
+        <v>39</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>438</v>
+      </c>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+    </row>
+    <row r="13" spans="1:9" ht="23.25">
+      <c r="A13" s="39">
+        <v>9</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>439</v>
+      </c>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38">
+        <v>40</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>440</v>
+      </c>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+    </row>
+    <row r="14" spans="1:9" ht="23.25">
+      <c r="A14" s="39">
+        <v>10</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>441</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38">
+        <v>41</v>
+      </c>
+      <c r="G14" s="39" t="s">
+        <v>442</v>
+      </c>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+    </row>
+    <row r="15" spans="1:9" ht="23.25">
+      <c r="A15" s="39">
+        <v>11</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>443</v>
+      </c>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38">
+        <v>42</v>
+      </c>
+      <c r="G15" s="39" t="s">
+        <v>444</v>
+      </c>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+    </row>
+    <row r="16" spans="1:9" ht="23.25">
+      <c r="A16" s="39">
+        <v>12</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>445</v>
+      </c>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38">
+        <v>43</v>
+      </c>
+      <c r="G16" s="39" t="s">
+        <v>446</v>
+      </c>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+    </row>
+    <row r="17" spans="1:7" ht="23.25">
+      <c r="A17" s="39">
+        <v>13</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>447</v>
+      </c>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38">
+        <v>44</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="23.25">
+      <c r="A18" s="39">
+        <v>14</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>449</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="39"/>
+    </row>
+    <row r="19" spans="1:7" ht="23.25">
+      <c r="A19" s="39">
+        <v>15</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>450</v>
+      </c>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+    </row>
+    <row r="20" spans="1:7" ht="23.25">
+      <c r="A20" s="39">
+        <v>16</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>451</v>
+      </c>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+    </row>
+    <row r="21" spans="1:7" ht="23.25">
+      <c r="A21" s="39">
+        <v>17</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>452</v>
+      </c>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+    </row>
+    <row r="22" spans="1:7" ht="23.25">
+      <c r="A22" s="39">
+        <v>18</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>453</v>
+      </c>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+    </row>
+    <row r="23" spans="1:7" ht="23.25">
+      <c r="A23" s="39">
+        <v>19</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>454</v>
+      </c>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+    </row>
+    <row r="24" spans="1:7" ht="23.25">
+      <c r="A24" s="39">
+        <v>20</v>
+      </c>
+      <c r="B24" s="39" t="s">
+        <v>455</v>
+      </c>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+    </row>
+    <row r="25" spans="1:7" ht="23.25">
+      <c r="A25" s="39">
+        <v>21</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>456</v>
+      </c>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+    </row>
+    <row r="26" spans="1:7" ht="23.25">
+      <c r="A26" s="39">
+        <v>22</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>457</v>
+      </c>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+    </row>
+    <row r="27" spans="1:7" ht="23.25">
+      <c r="A27" s="39">
+        <v>23</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>458</v>
+      </c>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+    </row>
+    <row r="28" spans="1:7" ht="23.25">
+      <c r="A28" s="39">
+        <v>24</v>
+      </c>
+      <c r="B28" s="39" t="s">
+        <v>459</v>
+      </c>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+    </row>
+    <row r="29" spans="1:7" ht="23.25">
+      <c r="A29" s="39">
+        <v>25</v>
+      </c>
+      <c r="B29" s="39" t="s">
+        <v>460</v>
+      </c>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+    </row>
+    <row r="30" spans="1:7" ht="23.25">
+      <c r="A30" s="39">
+        <v>26</v>
+      </c>
+      <c r="B30" s="39" t="s">
+        <v>461</v>
+      </c>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+    </row>
+    <row r="31" spans="1:7" ht="23.25">
+      <c r="A31" s="39">
+        <v>27</v>
+      </c>
+      <c r="B31" s="39" t="s">
+        <v>462</v>
+      </c>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+    </row>
+    <row r="32" spans="1:7" ht="23.25">
+      <c r="A32" s="39">
+        <v>28</v>
+      </c>
+      <c r="B32" s="39" t="s">
+        <v>463</v>
+      </c>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+    </row>
+    <row r="33" spans="1:6" ht="23.25">
+      <c r="A33" s="39">
+        <v>29</v>
+      </c>
+      <c r="B33" s="39" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="23.25">
+      <c r="A34" s="39">
+        <v>30</v>
+      </c>
+      <c r="B34" s="39" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="23.25">
+      <c r="A35" s="39">
+        <v>31</v>
+      </c>
+      <c r="B35" s="39" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="E37" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" s="20">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" style="45" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" style="33" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="45" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="45" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="45" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="45"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+    </row>
+    <row r="2" spans="1:6" ht="24">
+      <c r="A2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="25.5" customHeight="1">
+      <c r="A3" s="28">
+        <v>1</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>467</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28">
+        <f>SUM(A3:C3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="35.25" customHeight="1">
+      <c r="A4" s="28">
+        <v>2</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>468</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>469</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A5" s="28">
+        <v>3</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>470</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="23.25" customHeight="1">
+      <c r="A6" s="28">
+        <v>4</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>472</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="27" customHeight="1">
+      <c r="A7" s="28">
+        <v>5</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>474</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>475</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="22.5" customHeight="1">
+      <c r="A8" s="28">
+        <v>6</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>476</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>477</v>
+      </c>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="22.5" customHeight="1">
+      <c r="A9" s="28">
+        <v>7</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>482</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>483</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="24">
+      <c r="A10" s="28">
+        <v>8</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>479</v>
+      </c>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="24">
+      <c r="A11" s="28">
+        <v>9</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>480</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>481</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="25.5" customHeight="1">
+      <c r="A12" s="28">
+        <v>10</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>484</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>485</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="36.75" customHeight="1">
+      <c r="A13" s="28"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+    </row>
+    <row r="14" spans="1:6" ht="30" customHeight="1">
+      <c r="A14" s="28"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="30">
+        <f>SUM(D3:D13)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="30">
+        <f>SUM(E3:E13)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="30">
+        <f>SUM(F3:F13)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="24">
+      <c r="A15" s="28"/>
+      <c r="B15" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="C15" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="24">
+      <c r="A16" s="28"/>
+    </row>
+    <row r="17" spans="1:1" ht="24">
+      <c r="A17" s="28"/>
+    </row>
+    <row r="19" spans="1:1" ht="24"/>
+    <row r="20" spans="1:1" ht="24"/>
+    <row r="21" spans="1:1" ht="24"/>
+    <row r="22" spans="1:1" ht="24"/>
+    <row r="23" spans="1:1" ht="24"/>
+    <row r="24" spans="1:1" ht="24"/>
+    <row r="26" spans="1:1" ht="24"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
     <col min="3" max="3" width="54" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
@@ -2128,50 +3703,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" customHeight="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="46" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+    </row>
+    <row r="2" spans="1:6" ht="21" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="B2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F2" s="12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="21" customHeight="1">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="21" customHeight="1">
       <c r="A3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
@@ -2179,15 +3748,15 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="35.25" customHeight="1">
+    <row r="4" spans="1:6" ht="21" customHeight="1">
       <c r="A4" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>125</v>
+        <v>69</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -2195,15 +3764,15 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="21" customHeight="1">
+    <row r="5" spans="1:6" ht="35.25" customHeight="1">
       <c r="A5" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>127</v>
+        <v>66</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -2213,29 +3782,29 @@
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1">
       <c r="A6" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1">
       <c r="A7" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4">
@@ -2245,13 +3814,13 @@
     </row>
     <row r="8" spans="1:6" ht="21" customHeight="1">
       <c r="A8" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4">
@@ -2261,29 +3830,29 @@
     </row>
     <row r="9" spans="1:6" ht="21" customHeight="1">
       <c r="A9" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4">
-        <v>1</v>
-      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="21" customHeight="1">
       <c r="A10" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -2293,13 +3862,13 @@
     </row>
     <row r="11" spans="1:6" ht="21" customHeight="1">
       <c r="A11" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -2309,13 +3878,13 @@
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1">
       <c r="A12" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -2325,13 +3894,13 @@
     </row>
     <row r="13" spans="1:6" ht="21" customHeight="1">
       <c r="A13" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -2341,13 +3910,13 @@
     </row>
     <row r="14" spans="1:6" ht="21" customHeight="1">
       <c r="A14" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -2357,13 +3926,13 @@
     </row>
     <row r="15" spans="1:6" ht="21" customHeight="1">
       <c r="A15" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>276</v>
+        <v>89</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -2373,13 +3942,13 @@
     </row>
     <row r="16" spans="1:6" ht="21" customHeight="1">
       <c r="A16" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>95</v>
+        <v>272</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -2389,13 +3958,13 @@
     </row>
     <row r="17" spans="1:6" ht="21" customHeight="1">
       <c r="A17" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -2405,13 +3974,13 @@
     </row>
     <row r="18" spans="1:6" ht="21" customHeight="1">
       <c r="A18" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -2421,13 +3990,13 @@
     </row>
     <row r="19" spans="1:6" ht="21" customHeight="1">
       <c r="A19" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -2437,13 +4006,13 @@
     </row>
     <row r="20" spans="1:6" ht="21" customHeight="1">
       <c r="A20" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -2453,13 +4022,13 @@
     </row>
     <row r="21" spans="1:6" ht="21" customHeight="1">
       <c r="A21" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -2469,13 +4038,13 @@
     </row>
     <row r="22" spans="1:6" ht="21" customHeight="1">
       <c r="A22" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -2485,13 +4054,13 @@
     </row>
     <row r="23" spans="1:6" ht="21" customHeight="1">
       <c r="A23" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -2501,13 +4070,13 @@
     </row>
     <row r="24" spans="1:6" ht="21" customHeight="1">
       <c r="A24" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -2517,13 +4086,13 @@
     </row>
     <row r="25" spans="1:6" ht="21" customHeight="1">
       <c r="A25" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -2533,13 +4102,13 @@
     </row>
     <row r="26" spans="1:6" ht="21" customHeight="1">
       <c r="A26" s="3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -2549,13 +4118,13 @@
     </row>
     <row r="27" spans="1:6" ht="21" customHeight="1">
       <c r="A27" s="3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -2565,13 +4134,13 @@
     </row>
     <row r="28" spans="1:6" ht="21" customHeight="1">
       <c r="A28" s="3">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -2581,13 +4150,13 @@
     </row>
     <row r="29" spans="1:6" ht="21" customHeight="1">
       <c r="A29" s="3">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -2597,13 +4166,13 @@
     </row>
     <row r="30" spans="1:6" ht="21" customHeight="1">
       <c r="A30" s="3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -2613,13 +4182,13 @@
     </row>
     <row r="31" spans="1:6" ht="21" customHeight="1">
       <c r="A31" s="3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -2629,43 +4198,43 @@
     </row>
     <row r="32" spans="1:6" ht="21" customHeight="1">
       <c r="A32" s="3">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C32" s="3"/>
+        <v>120</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="D32" s="4"/>
-      <c r="E32" s="4">
-        <v>1</v>
-      </c>
-      <c r="F32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:6" ht="21" customHeight="1">
       <c r="A33" s="3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>157</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="C33" s="3"/>
       <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4">
-        <v>1</v>
-      </c>
+      <c r="E33" s="4">
+        <v>1</v>
+      </c>
+      <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6" ht="21" customHeight="1">
       <c r="A34" s="3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -2675,13 +4244,13 @@
     </row>
     <row r="35" spans="1:6" ht="21" customHeight="1">
       <c r="A35" s="3">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>69</v>
+        <v>154</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -2691,29 +4260,29 @@
     </row>
     <row r="36" spans="1:6" ht="21" customHeight="1">
       <c r="A36" s="3">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>269</v>
+        <v>156</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>277</v>
+        <v>67</v>
       </c>
       <c r="D36" s="4"/>
-      <c r="E36" s="4">
-        <v>1</v>
-      </c>
-      <c r="F36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:6" ht="21" customHeight="1">
       <c r="A37" s="3">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4">
@@ -2723,29 +4292,29 @@
     </row>
     <row r="38" spans="1:6" ht="21" customHeight="1">
       <c r="A38" s="3">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4">
-        <v>1</v>
-      </c>
+      <c r="E38" s="4">
+        <v>1</v>
+      </c>
+      <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" ht="21" customHeight="1">
       <c r="A39" s="3">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -2755,13 +4324,13 @@
     </row>
     <row r="40" spans="1:6" ht="21" customHeight="1">
       <c r="A40" s="3">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -2771,13 +4340,13 @@
     </row>
     <row r="41" spans="1:6" ht="21" customHeight="1">
       <c r="A41" s="3">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -2786,125 +4355,287 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="21" customHeight="1">
+      <c r="A42" s="3">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>270</v>
+      </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
+      <c r="F42" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:6" ht="21" customHeight="1">
-      <c r="D43" s="20">
-        <f>SUM(D2:D42)</f>
-        <v>4</v>
-      </c>
-      <c r="E43" s="20">
-        <f t="shared" ref="E43:F43" si="0">SUM(E2:E42)</f>
-        <v>6</v>
-      </c>
-      <c r="F43" s="20">
-        <f t="shared" si="0"/>
-        <v>30</v>
+      <c r="A43" s="3">
+        <v>41</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="21" customHeight="1">
+      <c r="A44" s="3">
+        <v>42</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>281</v>
+      </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
+      <c r="F44" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:6" ht="21" customHeight="1">
-      <c r="D45" s="4"/>
+      <c r="A45" s="3">
+        <v>43</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="4">
+        <v>1</v>
+      </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6" ht="21" customHeight="1">
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-    </row>
-    <row r="47" spans="1:6" ht="21" customHeight="1">
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-    </row>
-    <row r="48" spans="1:6" ht="21" customHeight="1">
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-    </row>
-    <row r="49" spans="4:6" ht="21" customHeight="1">
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-    </row>
-    <row r="50" spans="4:6" ht="21" customHeight="1">
+    <row r="46" spans="1:6" s="27" customFormat="1" ht="21" customHeight="1">
+      <c r="A46" s="25">
+        <v>44</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26">
+        <v>1</v>
+      </c>
+      <c r="F46" s="26"/>
+    </row>
+    <row r="47" spans="1:6" s="27" customFormat="1" ht="21" customHeight="1">
+      <c r="A47" s="25">
+        <v>45</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="27" customFormat="1" ht="21" customHeight="1">
+      <c r="A48" s="25">
+        <v>46</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="27" customFormat="1" ht="21" customHeight="1">
+      <c r="A49" s="25">
+        <v>47</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>385</v>
+      </c>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="21" customHeight="1">
+      <c r="A50" s="3">
+        <v>48</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="4:6" ht="21" customHeight="1">
+    <row r="51" spans="1:7" ht="21" customHeight="1">
+      <c r="A51" s="3">
+        <v>49</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="4:6" ht="21" customHeight="1">
+    <row r="52" spans="1:7" ht="21" customHeight="1">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="4:6" ht="21" customHeight="1">
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-    </row>
-    <row r="54" spans="4:6" ht="21" customHeight="1">
+    <row r="53" spans="1:7" ht="21" customHeight="1">
+      <c r="D53" s="17">
+        <f>SUM(D3:D49)</f>
+        <v>5</v>
+      </c>
+      <c r="E53" s="17">
+        <f>SUM(E3:E49)</f>
+        <v>7</v>
+      </c>
+      <c r="F53" s="17">
+        <f>SUM(F3:F49)</f>
+        <v>35</v>
+      </c>
+      <c r="G53" s="44">
+        <f>SUM(D53,E53,F53)</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="21" customHeight="1">
+      <c r="B54" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="20">
+        <v>40</v>
+      </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="4:6" ht="21" customHeight="1">
+    <row r="55" spans="1:7" ht="21" customHeight="1">
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="4:6" ht="21" customHeight="1">
+    <row r="56" spans="1:7" ht="21" customHeight="1">
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="4:6" ht="21" customHeight="1">
+    <row r="57" spans="1:7" ht="21" customHeight="1">
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="4:6" ht="21" customHeight="1">
+    <row r="58" spans="1:7" ht="21" customHeight="1">
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="4:6" ht="21" customHeight="1">
+    <row r="59" spans="1:7" ht="21" customHeight="1">
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="4:6" ht="21" customHeight="1">
+    <row r="60" spans="1:7" ht="21" customHeight="1">
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="4:6" ht="21" customHeight="1">
+    <row r="61" spans="1:7" ht="21" customHeight="1">
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="4:6" ht="21" customHeight="1">
+    <row r="62" spans="1:7" ht="21" customHeight="1">
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="4:6" ht="21" customHeight="1">
+    <row r="63" spans="1:7" ht="21" customHeight="1">
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
     </row>
+    <row r="64" spans="1:7" ht="21" customHeight="1">
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+    </row>
+    <row r="65" spans="4:6" ht="21" customHeight="1">
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+    </row>
+    <row r="66" spans="4:6" ht="21" customHeight="1">
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+    </row>
+    <row r="67" spans="4:6" ht="21" customHeight="1">
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+    </row>
+    <row r="68" spans="4:6" ht="21" customHeight="1">
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+    </row>
+    <row r="69" spans="4:6" ht="21" customHeight="1">
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+    </row>
+    <row r="70" spans="4:6" ht="21" customHeight="1">
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+    </row>
+    <row r="71" spans="4:6" ht="21" customHeight="1">
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+    </row>
+    <row r="72" spans="4:6" ht="21" customHeight="1">
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+    </row>
+    <row r="73" spans="4:6" ht="21" customHeight="1">
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2912,10 +4643,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2928,137 +4659,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" t="s">
+      <c r="A1" s="46" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F3">
+        <v>146</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E4">
+        <v>148</v>
+      </c>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E5" s="24">
+        <v>1</v>
+      </c>
+      <c r="F5" s="24"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C5" t="s">
-        <v>155</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="B7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="B8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="B9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="B10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="B11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="B12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="B13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="B14" t="s">
-        <v>81</v>
+        <v>151</v>
+      </c>
+      <c r="C6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3070,184 +4773,221 @@
     <col min="5" max="5" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="14" customFormat="1">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="46" t="s">
+        <v>304</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+    </row>
+    <row r="2" spans="1:7" s="13" customFormat="1">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="14" t="s">
+      <c r="B2" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" t="s">
         <v>128</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>129</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>130</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C6" t="s">
         <v>131</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>135</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C8" t="s">
         <v>136</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>137</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
+      <c r="C9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" t="s">
+        <v>144</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="D13" s="18">
+        <f>SUM(D3:D12)</f>
+        <v>1</v>
+      </c>
+      <c r="E13" s="18">
+        <f t="shared" ref="E13:F13" si="0">SUM(E3:E12)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="18">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C8" t="s">
-        <v>141</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C9" t="s">
-        <v>143</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C10" t="s">
-        <v>145</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
+      <c r="C14" s="21">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>146</v>
-      </c>
-      <c r="C11" t="s">
-        <v>147</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F373"/>
+  <dimension ref="A1:G373"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7" style="5" customWidth="1"/>
-    <col min="2" max="3" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
     <col min="4" max="4" width="26.42578125" customWidth="1"/>
     <col min="257" max="257" width="7" customWidth="1"/>
     <col min="258" max="259" width="15.42578125" customWidth="1"/>
@@ -3440,433 +5180,550 @@
     <col min="16132" max="16132" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:7" s="7" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A1" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+    </row>
+    <row r="2" spans="1:7" s="7" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A2" s="47" t="s">
+        <v>305</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+    </row>
+    <row r="3" spans="1:7" s="16" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A3" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-    </row>
-    <row r="2" spans="1:6" s="7" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A2" s="19" t="s">
+      <c r="E3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A4" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-    </row>
-    <row r="3" spans="1:6" s="17" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="B4" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="16" t="s">
+      <c r="C4" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="10">
+        <v>0</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A5" s="8" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" s="10" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A4" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="C5" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D5" s="9"/>
+      <c r="G5" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A6" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="1:6" s="10" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A5" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="C6" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="D6" s="9"/>
+      <c r="G6" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A7" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:6" s="10" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A6" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C7" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D7" s="9"/>
+      <c r="G7" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A8" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:6" s="10" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A7" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="C8" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D8" s="9"/>
+      <c r="G8" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A9" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:6" s="10" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A8" s="8" t="s">
+      <c r="B9" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="C9" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D9" s="9"/>
+      <c r="G9" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A10" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:6" s="10" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A9" s="8" t="s">
+      <c r="B10" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="D10" s="9"/>
+      <c r="G10" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A11" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:6" s="10" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A10" s="8" t="s">
+      <c r="B11" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="D11" s="9"/>
+      <c r="G11" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A12" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="B12" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:6" s="10" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A11" s="8" t="s">
+      <c r="C12" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="D12" s="9"/>
+      <c r="G12" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A13" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:6" s="10" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A12" s="8" t="s">
+      <c r="B13" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="C13" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="D13" s="9"/>
+      <c r="G13" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A14" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:6" s="10" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A13" s="8" t="s">
+      <c r="B14" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="C14" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="D14" s="9"/>
+      <c r="G14" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A15" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:6" s="10" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A14" s="8" t="s">
+      <c r="B15" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="C15" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="D15" s="9"/>
+      <c r="G15" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A16" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:6" s="10" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A15" s="8" t="s">
+      <c r="B16" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="C16" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="D16" s="9"/>
+      <c r="G16" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A17" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:6" s="10" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A16" s="8" t="s">
+      <c r="B17" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="C17" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="D17" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="1:4" s="10" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A17" s="8" t="s">
+      <c r="G17" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A18" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B18" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C18" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D18" s="9"/>
+      <c r="G18" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A19" s="8" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" s="10" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A18" s="8" t="s">
+      <c r="B19" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="C19" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="D19" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" spans="1:4" s="10" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A19" s="8" t="s">
+      <c r="G19" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A20" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B20" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C20" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D20" s="9"/>
+      <c r="G20" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A21" s="8" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" s="10" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A20" s="8" t="s">
+      <c r="B21" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="C21" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="D21" s="9"/>
+      <c r="G21" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A22" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" spans="1:4" s="10" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A21" s="8" t="s">
+      <c r="B22" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="C22" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="D22" s="9"/>
+      <c r="G22" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A23" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" spans="1:4" s="10" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A22" s="8" t="s">
+      <c r="B23" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="C23" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="D23" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="D22" s="9"/>
-    </row>
-    <row r="23" spans="1:4" s="10" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A23" s="8" t="s">
+      <c r="G23" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A24" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B24" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C24" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D24" s="9"/>
+      <c r="G24" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A25" s="8" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" s="10" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A24" s="8" t="s">
+      <c r="B25" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="C25" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="D25" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="G25" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A26" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="D24" s="9"/>
-    </row>
-    <row r="25" spans="1:4" s="10" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A25" s="8" t="s">
+      <c r="B26" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="C26" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="D26" s="9"/>
+      <c r="G26" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A27" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" s="10" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A26" s="8" t="s">
+      <c r="B27" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="C27" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="D27" s="9"/>
+      <c r="G27" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A28" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="D26" s="9"/>
-    </row>
-    <row r="27" spans="1:4" s="10" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A27" s="8" t="s">
+      <c r="B28" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="C28" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="D28" s="9"/>
+      <c r="G28" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A29" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="D27" s="9"/>
-    </row>
-    <row r="28" spans="1:4" s="10" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A28" s="8" t="s">
+      <c r="B29" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="C29" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="D29" s="9"/>
+      <c r="G29" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A30" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="D28" s="9"/>
-    </row>
-    <row r="29" spans="1:4" s="10" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A29" s="8" t="s">
+      <c r="B30" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="C30" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="D30" s="9"/>
+      <c r="G30" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A31" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="D29" s="9"/>
-    </row>
-    <row r="30" spans="1:4" s="10" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A30" s="8" t="s">
+      <c r="B31" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="C31" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="D30" s="9"/>
-    </row>
-    <row r="31" spans="1:4" s="10" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A31" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>250</v>
-      </c>
       <c r="D31" s="9"/>
-    </row>
-    <row r="32" spans="1:4" ht="23.25" customHeight="1">
+      <c r="G31" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="23.25" customHeight="1">
       <c r="A32" s="11"/>
-    </row>
-    <row r="33" spans="1:1" ht="23.25" customHeight="1">
+      <c r="E32" s="18">
+        <f>SUM(E4:E31)</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="18">
+        <f t="shared" ref="F32:G32" si="0">SUM(F4:F31)</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="18">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="23.25" customHeight="1">
       <c r="A33" s="11"/>
-    </row>
-    <row r="34" spans="1:1" ht="23.25" customHeight="1">
+      <c r="B33" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="23.25" customHeight="1">
       <c r="A34" s="11"/>
     </row>
-    <row r="35" spans="1:1" ht="23.25" customHeight="1">
+    <row r="35" spans="1:3" ht="23.25" customHeight="1">
       <c r="A35" s="11"/>
     </row>
-    <row r="36" spans="1:1" ht="23.25" customHeight="1">
+    <row r="36" spans="1:3" ht="23.25" customHeight="1">
       <c r="A36" s="11"/>
     </row>
-    <row r="37" spans="1:1" ht="23.25" customHeight="1">
+    <row r="37" spans="1:3" ht="23.25" customHeight="1">
       <c r="A37" s="11"/>
     </row>
-    <row r="38" spans="1:1" ht="23.25" customHeight="1">
+    <row r="38" spans="1:3" ht="23.25" customHeight="1">
       <c r="A38" s="11"/>
     </row>
-    <row r="39" spans="1:1" ht="23.25" customHeight="1">
+    <row r="39" spans="1:3" ht="23.25" customHeight="1">
       <c r="A39" s="11"/>
     </row>
-    <row r="40" spans="1:1" ht="23.25" customHeight="1">
+    <row r="40" spans="1:3" ht="23.25" customHeight="1">
       <c r="A40" s="11"/>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:3">
       <c r="A41" s="11"/>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:3">
       <c r="A42" s="11"/>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:3">
       <c r="A43" s="11"/>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:3">
       <c r="A44" s="11"/>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:3">
       <c r="A45" s="11"/>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:3">
       <c r="A46" s="11"/>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:3">
       <c r="A47" s="11"/>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:3">
       <c r="A48" s="11"/>
     </row>
     <row r="49" spans="1:1">
@@ -4855,10 +6712,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4871,82 +6728,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="46" t="s">
+        <v>306</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="B2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D3" s="4"/>
+        <v>248</v>
+      </c>
+      <c r="D3" s="4">
+        <f>SUM(A3:C3)</f>
+        <v>1</v>
+      </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="C4" t="s">
-        <v>252</v>
-      </c>
-      <c r="D4" s="4"/>
+        <v>67</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -4956,13 +6808,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C6" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -4972,13 +6824,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C7" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -4988,13 +6840,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C8" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -5004,13 +6856,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C9" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -5020,13 +6872,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C10" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -5036,13 +6888,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C11" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -5051,17 +6903,1325 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="F12" s="3"/>
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C12" t="s">
+        <v>261</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>262</v>
+      </c>
+      <c r="C13" t="s">
+        <v>263</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="B14" t="s">
-        <v>268</v>
-      </c>
-      <c r="C14" s="5">
+      <c r="D14" s="18">
+        <f>SUM(D3:D13)</f>
+        <v>2</v>
+      </c>
+      <c r="E14" s="18">
+        <f t="shared" ref="E14:F14" si="0">SUM(E4:E13)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="18">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="C16" s="21">
         <v>20</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="46" t="s">
+        <v>307</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4">
+        <f>SUM(A3:C3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="23.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="23.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="23.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="23.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="23.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="23.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>293</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="23.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>295</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>297</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>298</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>299</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="23.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>300</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="23.25">
+      <c r="C15" s="19"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="D16" s="18">
+        <f>SUM(D4:D13)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="18">
+        <f>SUM(E4:E13)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="18">
+        <f>SUM(F3:F14)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="C17" s="21">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="46" t="s">
+        <v>308</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C3" t="s">
+        <v>310</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4">
+        <f>SUM(A3:C3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C4" t="s">
+        <v>369</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C6" t="s">
+        <v>315</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C7" t="s">
+        <v>370</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>317</v>
+      </c>
+      <c r="C8" t="s">
+        <v>318</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>371</v>
+      </c>
+      <c r="C9" t="s">
+        <v>319</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>320</v>
+      </c>
+      <c r="C10" t="s">
+        <v>372</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>321</v>
+      </c>
+      <c r="C11" t="s">
+        <v>322</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>323</v>
+      </c>
+      <c r="C12" t="s">
+        <v>373</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>324</v>
+      </c>
+      <c r="C13" t="s">
+        <v>325</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>326</v>
+      </c>
+      <c r="C14" t="s">
+        <v>327</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>328</v>
+      </c>
+      <c r="C15" t="s">
+        <v>329</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>330</v>
+      </c>
+      <c r="C16" t="s">
+        <v>331</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>332</v>
+      </c>
+      <c r="C17" t="s">
+        <v>333</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>334</v>
+      </c>
+      <c r="C18" t="s">
+        <v>335</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>336</v>
+      </c>
+      <c r="C19" t="s">
+        <v>337</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>338</v>
+      </c>
+      <c r="C20" t="s">
+        <v>339</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>340</v>
+      </c>
+      <c r="C21" t="s">
+        <v>341</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>374</v>
+      </c>
+      <c r="C22" t="s">
+        <v>342</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>343</v>
+      </c>
+      <c r="C23" t="s">
+        <v>344</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>346</v>
+      </c>
+      <c r="C24" t="s">
+        <v>347</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>348</v>
+      </c>
+      <c r="C25" t="s">
+        <v>349</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>350</v>
+      </c>
+      <c r="C26" t="s">
+        <v>351</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>352</v>
+      </c>
+      <c r="C27" t="s">
+        <v>353</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>354</v>
+      </c>
+      <c r="C28" t="s">
+        <v>355</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>356</v>
+      </c>
+      <c r="C29" t="s">
+        <v>357</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>358</v>
+      </c>
+      <c r="C30" t="s">
+        <v>359</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>360</v>
+      </c>
+      <c r="C31" t="s">
+        <v>361</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>362</v>
+      </c>
+      <c r="C32" t="s">
+        <v>363</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>364</v>
+      </c>
+      <c r="C33" t="s">
+        <v>365</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>366</v>
+      </c>
+      <c r="C34" t="s">
+        <v>375</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>367</v>
+      </c>
+      <c r="C35" t="s">
+        <v>368</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="B38" t="s">
+        <v>345</v>
+      </c>
+      <c r="D38" s="18">
+        <f>SUM(D4:D13)</f>
+        <v>0</v>
+      </c>
+      <c r="E38" s="18">
+        <f t="shared" ref="E38" si="0">SUM(E4:E13)</f>
+        <v>0</v>
+      </c>
+      <c r="F38" s="18">
+        <f>SUM(F3:F35)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="B39" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="C39" s="21">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="24"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" style="33" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="31" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="31" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15">
+      <c r="A1" s="48" t="s">
+        <v>386</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="25.5" customHeight="1">
+      <c r="A3" s="28">
+        <v>1</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>387</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>388</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28">
+        <f>SUM(A3:C3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="35.25" customHeight="1">
+      <c r="A4" s="28">
+        <v>2</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>389</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A5" s="28">
+        <v>3</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>392</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="23.25" customHeight="1">
+      <c r="A6" s="28">
+        <v>4</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>393</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="27" customHeight="1">
+      <c r="A7" s="28">
+        <v>5</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>395</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>394</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="22.5" customHeight="1">
+      <c r="A8" s="28">
+        <v>6</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>397</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>396</v>
+      </c>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="28">
+        <v>7</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>399</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>398</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="28">
+        <v>8</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>400</v>
+      </c>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="25.5" customHeight="1">
+      <c r="A11" s="28">
+        <v>9</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>401</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>402</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="28">
+        <v>10</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>403</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>404</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="36.75" customHeight="1">
+      <c r="A13" s="28">
+        <v>11</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>405</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>406</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="24.75" customHeight="1">
+      <c r="A14" s="28">
+        <v>12</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>407</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>408</v>
+      </c>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="24" customHeight="1">
+      <c r="A15" s="28">
+        <v>13</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>409</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="24" customHeight="1">
+      <c r="A16" s="28">
+        <v>14</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>413</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>410</v>
+      </c>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="24" customHeight="1">
+      <c r="A17" s="28">
+        <v>15</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>412</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>411</v>
+      </c>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="29.25" customHeight="1">
+      <c r="A18" s="28">
+        <v>16</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>414</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>415</v>
+      </c>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="29.25" customHeight="1">
+      <c r="A19" s="28">
+        <v>17</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>416</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>417</v>
+      </c>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="27.75" customHeight="1">
+      <c r="A20" s="28">
+        <v>18</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>418</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="36.75" customHeight="1">
+      <c r="A21" s="28"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+    </row>
+    <row r="22" spans="1:6" ht="30" customHeight="1">
+      <c r="A22" s="28"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="30">
+        <f>SUM(D3:D21)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="30">
+        <f t="shared" ref="E22:F22" si="0">SUM(E3:E21)</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="30">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="28"/>
+      <c r="B23" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="C23" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="28"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup fitToWidth="0" fitToHeight="2" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/trunk/ผ้าป่า2555.xlsx
+++ b/trunk/ผ้าป่า2555.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="240" windowWidth="19035" windowHeight="8325" tabRatio="695"/>
+    <workbookView xWindow="120" yWindow="240" windowWidth="19035" windowHeight="8325" tabRatio="877"/>
   </bookViews>
   <sheets>
     <sheet name="สรุปผ้าป่า 2555" sheetId="1" r:id="rId1"/>
@@ -15,16 +15,20 @@
     <sheet name="k.วันชัย" sheetId="6" r:id="rId6"/>
     <sheet name="k.ปะทุง" sheetId="7" r:id="rId7"/>
     <sheet name="k.หนิง" sheetId="8" r:id="rId8"/>
-    <sheet name="k.สายคุณวิลัดดา" sheetId="9" r:id="rId9"/>
-    <sheet name="k.ดาวเดือน" sheetId="10" r:id="rId10"/>
-    <sheet name="k.บัว" sheetId="11" r:id="rId11"/>
+    <sheet name="k.ดา" sheetId="9" r:id="rId9"/>
+    <sheet name="k.ดา2" sheetId="12" r:id="rId10"/>
+    <sheet name="k.ดาวเดือน" sheetId="10" r:id="rId11"/>
+    <sheet name="k.บัว" sheetId="11" r:id="rId12"/>
+    <sheet name="สายบางพลัด พี่วัตร" sheetId="13" r:id="rId13"/>
+    <sheet name="k.ต่อ" sheetId="14" r:id="rId14"/>
+    <sheet name="วิเชียร" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="601">
   <si>
     <t>ลำดับ</t>
   </si>
@@ -59,18 +63,6 @@
     <t>สุรชัย</t>
   </si>
   <si>
-    <t>สาย พี่หมาย,พี่หมอน,น้องบิ้ง</t>
-  </si>
-  <si>
-    <t>สาย บ.Aisoft  จำกัด</t>
-  </si>
-  <si>
-    <t>สาย Land&amp;houses จำกัด มหาชน</t>
-  </si>
-  <si>
-    <t>สาย จ.ชัยภูมิ (คุณปูน้อย)</t>
-  </si>
-  <si>
     <t xml:space="preserve">สาย โรงงาน </t>
   </si>
   <si>
@@ -98,57 +90,30 @@
     <t>สาย k.นวล บ้านนาหลัก</t>
   </si>
   <si>
-    <t>สาย พี่วัต</t>
-  </si>
-  <si>
     <t>สาย ครูอิ๊ด</t>
   </si>
   <si>
-    <t>สาย k.อุทัยพร</t>
-  </si>
-  <si>
-    <t>สาย k.</t>
-  </si>
-  <si>
-    <t>สาย k.ไผ่</t>
-  </si>
-  <si>
     <t>สาย k.โค บ้านโพนสว่าง</t>
   </si>
   <si>
     <t>สาย k.ยนต์ บ้านนาหลัก</t>
   </si>
   <si>
-    <t>สาย k.ดาวเดือน</t>
-  </si>
-  <si>
     <t>สาย k.วุฒิไกร (ทอม)</t>
   </si>
   <si>
     <t>เบอร์ติดต่อ</t>
   </si>
   <si>
-    <t>สาย k.วันชัย    นอ</t>
-  </si>
-  <si>
     <t>สาย k.ศาสนา   พี่ศาส</t>
   </si>
   <si>
-    <t>สาย k. เพียรทอง   จิ่ม</t>
-  </si>
-  <si>
     <t>รวม</t>
   </si>
   <si>
     <t>สาย B-quick  กึ่ม</t>
   </si>
   <si>
-    <t>สาย k.บัว โรงงาน</t>
-  </si>
-  <si>
-    <t>สาย k.หนิง+k.ราย</t>
-  </si>
-  <si>
     <t>สาย k.ยุพิน+k.เปอร์</t>
   </si>
   <si>
@@ -179,9 +144,6 @@
     <t>สาย k.ชื่น</t>
   </si>
   <si>
-    <t>สาย k.โฉม  รพ.พยายไทย3</t>
-  </si>
-  <si>
     <t>สาย k. กะเพา</t>
   </si>
   <si>
@@ -194,24 +156,9 @@
     <t>ปิยะ</t>
   </si>
   <si>
-    <t>สาย k.ดา</t>
-  </si>
-  <si>
-    <t>สาย k. เริง</t>
-  </si>
-  <si>
-    <t>สาย k. เสริบ</t>
-  </si>
-  <si>
-    <t>สาย k.เพียร</t>
-  </si>
-  <si>
     <t>o800872307</t>
   </si>
   <si>
-    <t>o894107063</t>
-  </si>
-  <si>
     <t>o899949184</t>
   </si>
   <si>
@@ -932,12 +879,6 @@
     <t>โคตรโนนกอก</t>
   </si>
   <si>
-    <t xml:space="preserve">สาย แลนด์แอนด์เฮ้าส์ จำกัด (มหาชน)  </t>
-  </si>
-  <si>
-    <t>สาย aisoft จำกัด (คุณการณ์)</t>
-  </si>
-  <si>
     <t>สาย จังหวัดมหาสารคาม (คุณปูน้อย)</t>
   </si>
   <si>
@@ -1487,17 +1428,416 @@
     <t>สายคุณพนิตอนงค์ (คุณบัว)</t>
   </si>
   <si>
-    <t>สาย k.ปะทุง</t>
-  </si>
-  <si>
     <t>จอย  ปะทุง</t>
+  </si>
+  <si>
+    <t>คุณ วิเรือง รัดสีหา และ คุณ ตรีเพชร รักบำรุง และครอบครัว</t>
+  </si>
+  <si>
+    <t>คุณ ศุภาวิณี พุทธขันธ์ พร้อมครอบครัว ขออุทิศให้เจ้ากรรมนายเวร</t>
+  </si>
+  <si>
+    <t>คุณ พงศกร อนุดร และครอบครัว</t>
+  </si>
+  <si>
+    <t>คุณ สมเกีรยติ ปทุมรัตน์ และครอบครัว</t>
+  </si>
+  <si>
+    <t>คุณมานพ นนภิภักดิ์ และครอบครัว</t>
+  </si>
+  <si>
+    <t>คุณ น้อย เทียวประสงค์ และครอบครัว</t>
+  </si>
+  <si>
+    <t>คุณ ชัชชัย มะลารวม และครอบครัว</t>
+  </si>
+  <si>
+    <t>คุณ มนตรี ธรรมสุรีย์</t>
+  </si>
+  <si>
+    <t>คุณ ธวัชชัย ธรรมปรีชา และครอบครัว</t>
+  </si>
+  <si>
+    <t>คุณ ดนุพล สีใสแก้ว และ คุณ ชลลดา สิงหาทอ และครอบครัว</t>
+  </si>
+  <si>
+    <t>คุณ อาทิตย์ ป้อมแผง และครอบครัว</t>
+  </si>
+  <si>
+    <t>คุณ บรรจง น้อยรักษ์ และ ครอบครัว</t>
+  </si>
+  <si>
+    <t>คุณ รด ปิงพยอม พร้อมครอบครัว</t>
+  </si>
+  <si>
+    <t>คุณ วสันติ ทองอาจ และ ครอบครัว</t>
+  </si>
+  <si>
+    <t>นส.วสุมา แก้วนิภารัตน์ และ นายฉัตรชัย ดีถาวร และครอบครัว</t>
+  </si>
+  <si>
+    <t>นส.สุนิสา สว่างใจธรรม และครอบครัว</t>
+  </si>
+  <si>
+    <t>นส.ปนัดดา บุญสุข และครอบครัว</t>
+  </si>
+  <si>
+    <t>นส.ชิชา เจริญรัตน์ พร้อมครอบครัว</t>
+  </si>
+  <si>
+    <t>นส.ยุพิน จงบริบูรณ์ และครอบครัว</t>
+  </si>
+  <si>
+    <t>นางนันท์กมล ก่ำพิมาย และครอบครัว (จิ๋ว)</t>
+  </si>
+  <si>
+    <t>นส.จันทิมา กานิวาสน์ และนายมานะชัย ช่างการ และครอบครัว</t>
+  </si>
+  <si>
+    <t>ดญ.ภัทรวดี แก้วกาหลง  พร้อมครอบครัว</t>
+  </si>
+  <si>
+    <t>คุณ นัดนี แพบขุนทด พร้อมครอบครัว</t>
+  </si>
+  <si>
+    <t>คุณ ไพบูล มะลารวม พร้อมครอบครัว</t>
+  </si>
+  <si>
+    <t>คุณ สุนทร บริบูรณ์ พร้อมครอบครัว</t>
+  </si>
+  <si>
+    <t>คุณ ครรชิต ป้อมแผง พร้อมครอบครัว</t>
+  </si>
+  <si>
+    <t>คุณ สนธยา เฉลยอาด พร้อมครอบครัว</t>
+  </si>
+  <si>
+    <t>ด.ช. เจษฎา    พิณโสภณ</t>
+  </si>
+  <si>
+    <t>คุณนราธิป   นาคกล่อม  และ ห้างหุ้นส่วน รีเรชั่นซับพลาย</t>
+  </si>
+  <si>
+    <t>คุณ ศักดิ์สิทธิ์   ใจชื่น</t>
+  </si>
+  <si>
+    <t>คุณ วัฒนชัย   วงษ์กระโซ่</t>
+  </si>
+  <si>
+    <t>คุณ ธันวา    จันดำ </t>
+  </si>
+  <si>
+    <t>ด.ญ. อลิษลา  วงษ์กระโซ่ </t>
+  </si>
+  <si>
+    <t>คุณ นงเยาว์      เห็มคำภา</t>
+  </si>
+  <si>
+    <t>คุณ นัฏกานต์   ไชยสิงหาร</t>
+  </si>
+  <si>
+    <t>คุณ ณัฐวุฒิ      เกล็ดงูเหลือม</t>
+  </si>
+  <si>
+    <t>คุณ วุฒิชัย      ช่องกลาง</t>
+  </si>
+  <si>
+    <t>คุณ อรมรเทพ   เล่ากลาง</t>
+  </si>
+  <si>
+    <t>คุณ คำบ่อ  วงษ์กระโซ่ </t>
+  </si>
+  <si>
+    <t>สายบริษัท สยามกมลเอก จำกัด (คุณต่อ )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">คุณ ต่อ     </t>
+  </si>
+  <si>
+    <t>วงศ์กระโซ่</t>
+  </si>
+  <si>
+    <t>คุณ จักพงษ์</t>
+  </si>
+  <si>
+    <t>คุณ ลิตร</t>
+  </si>
+  <si>
+    <t>คุณ ณรงฤทธิ์</t>
+  </si>
+  <si>
+    <t>ไชยทอง</t>
+  </si>
+  <si>
+    <t>คุณ ประยูร</t>
+  </si>
+  <si>
+    <t>คุณสมบัติ</t>
+  </si>
+  <si>
+    <t>คุณ สุริยา</t>
+  </si>
+  <si>
+    <t>เหง้าแก้ว</t>
+  </si>
+  <si>
+    <t>คุณ เปย</t>
+  </si>
+  <si>
+    <t>ยืนยง</t>
+  </si>
+  <si>
+    <t>คุณ ขวัญ</t>
+  </si>
+  <si>
+    <t>คุณ มนัส</t>
+  </si>
+  <si>
+    <t>ไหวคิด</t>
+  </si>
+  <si>
+    <t>คุณ อภิสิทธิ์</t>
+  </si>
+  <si>
+    <t>วชิรทองดี</t>
+  </si>
+  <si>
+    <t>คุณ ปัด</t>
+  </si>
+  <si>
+    <t>สายชุมดี</t>
+  </si>
+  <si>
+    <t>คุณ ประพันธ์</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> กระแสโสม</t>
+  </si>
+  <si>
+    <t>คุณ บัณฑิตา</t>
+  </si>
+  <si>
+    <t>ใจมนต์</t>
+  </si>
+  <si>
+    <t>คุณ สุพิน</t>
+  </si>
+  <si>
+    <t>เอนอ่อน</t>
+  </si>
+  <si>
+    <t>คุณ บุญเพ็ง</t>
+  </si>
+  <si>
+    <t>ดงนุรัตน์</t>
+  </si>
+  <si>
+    <t>คุณ ศิวะพร</t>
+  </si>
+  <si>
+    <t>มัณยานนท์และครอบครัว</t>
+  </si>
+  <si>
+    <t>คุณ สิทธิ์</t>
+  </si>
+  <si>
+    <t>คุณ นรินทร์</t>
+  </si>
+  <si>
+    <t>บัวงาม</t>
+  </si>
+  <si>
+    <t>คุณ ภูไท</t>
+  </si>
+  <si>
+    <t>คุณ ธงชัย</t>
+  </si>
+  <si>
+    <t>เมืองพล</t>
+  </si>
+  <si>
+    <t>ด.ช. ธนาวุฒิ</t>
+  </si>
+  <si>
+    <t>อาญาเมือง</t>
+  </si>
+  <si>
+    <t>คุณ อรรถพล</t>
+  </si>
+  <si>
+    <t>จันทกิจ</t>
+  </si>
+  <si>
+    <t>ยอดศิลา</t>
+  </si>
+  <si>
+    <t>ด.ช. ณัฐวัฒน์</t>
+  </si>
+  <si>
+    <t>วิเชียร</t>
+  </si>
+  <si>
+    <t>คุณ ศักดิ์ชัย</t>
+  </si>
+  <si>
+    <t>เกตรามฤทธิ์</t>
+  </si>
+  <si>
+    <t>คุณ สัน</t>
+  </si>
+  <si>
+    <t>งามเลิศ (หว่าน)</t>
+  </si>
+  <si>
+    <t>คุณ น้อย</t>
+  </si>
+  <si>
+    <t>สำรวมจิต</t>
+  </si>
+  <si>
+    <t>ด.ญ. วัชราภรณ์</t>
+  </si>
+  <si>
+    <t>แสนมี</t>
+  </si>
+  <si>
+    <t>คุณ คำรน</t>
+  </si>
+  <si>
+    <t>บางนาค</t>
+  </si>
+  <si>
+    <t>ด.ญ.  ชลธิดา</t>
+  </si>
+  <si>
+    <t>แซ่หยี่</t>
+  </si>
+  <si>
+    <t>คุณ เพลิน</t>
+  </si>
+  <si>
+    <t>คุณ อนุชาติ</t>
+  </si>
+  <si>
+    <t>ด.ญ. วิมล - ด.ช. ภูริวัฒน์  ศรีเพชรและครอบครัว</t>
+  </si>
+  <si>
+    <t>คุณ มนูญ  กมศิลป์และครอบครัว</t>
+  </si>
+  <si>
+    <t xml:space="preserve">คุณ เบญจวรรณ </t>
+  </si>
+  <si>
+    <t>วิเชียรและครอบครัว</t>
+  </si>
+  <si>
+    <t>คุณ  มังคร</t>
+  </si>
+  <si>
+    <t>ทานน้ำ</t>
+  </si>
+  <si>
+    <t>สายเจริญนคร ซอย4 (คุณวิเชียร )</t>
+  </si>
+  <si>
+    <t>คุณ วิเชียร</t>
+  </si>
+  <si>
+    <t>สาย คุณวันชัย คำมงคุณ</t>
+  </si>
+  <si>
+    <t>สาย บริษัทไทยมี-โก้ (คุณหนิง)</t>
+  </si>
+  <si>
+    <t>สาย รามคำแหง (คุณปะทุง สมบูรณ์)</t>
+  </si>
+  <si>
+    <t>สาย คุณวิลัดดา</t>
+  </si>
+  <si>
+    <t>รายชื่อกรรมการ สาย โตโยต้าชัวร์ปากเกร็ด</t>
+  </si>
+  <si>
+    <t>สาย โตโยต้าชัวร์ปากเกร็ด</t>
+  </si>
+  <si>
+    <t>คุณวิลัดดา</t>
+  </si>
+  <si>
+    <t>สาย อนุสาวรีย์ชัยสมรภูมิและหมู่บ้านเศรฐกิจ (คุณดาวเดือน)</t>
+  </si>
+  <si>
+    <t>คุณดาวเดือน</t>
+  </si>
+  <si>
+    <t>สายบางพลัด (คุณวัฒนชัย )</t>
+  </si>
+  <si>
+    <t>สาย เจริญนคร ซอย4 (คุณวิเชียร )</t>
+  </si>
+  <si>
+    <t>สาย บริษัท สยามกมลเอก จำกัด (คุณต่อ )</t>
+  </si>
+  <si>
+    <t>สาย บางพลัด (คุณวัฒนชัย )</t>
+  </si>
+  <si>
+    <t>สาย บริษัท STAS โครงการรถฟ้าสายสีเขียว (คุณอุทัยพร)</t>
+  </si>
+  <si>
+    <t>พี่ยนต์</t>
+  </si>
+  <si>
+    <t>อุทัยพร</t>
+  </si>
+  <si>
+    <t xml:space="preserve">สาย บริษัท อุสาหกรรมรามาแท็กซ์ไทล์ (1988) จำกัด (คุณอัครชัย)    </t>
+  </si>
+  <si>
+    <t>คุณอัครชัย</t>
+  </si>
+  <si>
+    <t xml:space="preserve">สาย บริษัท แลนด์แอนด์เฮ้าส์ จำกัด (มหาชน)  </t>
+  </si>
+  <si>
+    <t>สาย บริษัท aisoft จำกัด (คุณการณ์)</t>
+  </si>
+  <si>
+    <t>สาย k.โฉม  รพ.พญาไทย3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">สาย เทศบาลตำบลหนองแคน </t>
+  </si>
+  <si>
+    <t>สาย องค์การบริหารส่วนตำบลพังแดง</t>
+  </si>
+  <si>
+    <t>สาย คุณอรอุมา</t>
+  </si>
+  <si>
+    <t>ศรีภูเวียงพร้อมครอบครัว</t>
+  </si>
+  <si>
+    <t>สาย คุณพนิตอนงค์ (คุณบัว)</t>
+  </si>
+  <si>
+    <t>สาย คุณ เพียนทอง สุขรี</t>
+  </si>
+  <si>
+    <t>สาย บ้านโพนไฮ หมู่ 3</t>
+  </si>
+  <si>
+    <t>สาย พี่หมาย,พี่หมอน</t>
+  </si>
+  <si>
+    <t>สาย บริษัท เอไอซอฟต์ จำกัด (คุณการณ์)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1562,8 +1902,22 @@
       <name val="Angsana New"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="BrowalliaUPC"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="BrowalliaUPC"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1612,6 +1966,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1641,7 +2001,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1738,7 +2098,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1747,22 +2106,63 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2066,840 +2466,1259 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="23" style="3" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="29.140625" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="5.42578125" style="53" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="53" customWidth="1"/>
+    <col min="3" max="3" width="61.7109375" style="53" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="53" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="53" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="53" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="53" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="53" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" style="53" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="53" customWidth="1"/>
+    <col min="11" max="11" width="29.140625" style="53" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="29.25" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" ht="29.25" customHeight="1">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="51"/>
+      <c r="E1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="51" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="54" customFormat="1">
+      <c r="A2" s="54">
+        <v>1</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>600</v>
+      </c>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55">
+        <v>2</v>
+      </c>
+      <c r="G2" s="55">
+        <v>3</v>
+      </c>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+    </row>
+    <row r="3" spans="1:11" s="54" customFormat="1">
+      <c r="A3" s="54">
+        <v>2</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>589</v>
+      </c>
+      <c r="E3" s="55">
+        <v>5</v>
+      </c>
+      <c r="F3" s="55">
+        <v>7</v>
+      </c>
+      <c r="G3" s="55">
+        <v>35</v>
+      </c>
+      <c r="H3" s="55">
+        <v>40</v>
+      </c>
+      <c r="I3" s="55"/>
+    </row>
+    <row r="4" spans="1:11" s="54" customFormat="1">
+      <c r="A4" s="54">
+        <v>3</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>283</v>
+      </c>
+      <c r="E4" s="55">
+        <v>1</v>
+      </c>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55">
+        <v>9</v>
+      </c>
+      <c r="H4" s="55">
+        <v>10</v>
+      </c>
+      <c r="I4" s="55"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="53">
+        <v>4</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="53">
+        <v>5</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+    </row>
+    <row r="7" spans="1:11" s="57" customFormat="1">
+      <c r="A7" s="57">
+        <v>6</v>
+      </c>
+      <c r="B7" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>583</v>
+      </c>
+      <c r="E7" s="58">
+        <v>2</v>
+      </c>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58">
+        <v>10</v>
+      </c>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="53">
+        <v>7</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+    </row>
+    <row r="9" spans="1:11" s="54" customFormat="1">
+      <c r="A9" s="54">
+        <v>8</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>586</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>584</v>
+      </c>
+      <c r="E9" s="55">
+        <v>1</v>
+      </c>
+      <c r="F9" s="55">
+        <v>1</v>
+      </c>
+      <c r="G9" s="55">
+        <v>58</v>
+      </c>
+      <c r="H9" s="55">
+        <v>10</v>
+      </c>
+      <c r="I9" s="55"/>
+    </row>
+    <row r="10" spans="1:11" s="57" customFormat="1">
+      <c r="A10" s="57">
+        <v>9</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>588</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>587</v>
+      </c>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58">
+        <v>1</v>
+      </c>
+      <c r="G10" s="58">
+        <v>24</v>
+      </c>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="53">
+        <v>10</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="53">
+        <v>11</v>
+      </c>
+      <c r="B12" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+    </row>
+    <row r="13" spans="1:11" s="54" customFormat="1">
+      <c r="A13" s="54">
+        <v>12</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>579</v>
+      </c>
+      <c r="C13" s="54" t="s">
+        <v>578</v>
+      </c>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55">
+        <v>1</v>
+      </c>
+      <c r="G13" s="55">
+        <v>44</v>
+      </c>
+      <c r="H13" s="55">
+        <v>20</v>
+      </c>
+      <c r="I13" s="55"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="53">
+        <v>13</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+    </row>
+    <row r="15" spans="1:11" s="54" customFormat="1">
+      <c r="A15" s="54">
+        <v>14</v>
+      </c>
+      <c r="B15" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="54" t="s">
+        <v>597</v>
+      </c>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55">
+        <v>28</v>
+      </c>
+      <c r="H15" s="55">
+        <v>10</v>
+      </c>
+      <c r="I15" s="55"/>
+    </row>
+    <row r="16" spans="1:11" s="54" customFormat="1">
+      <c r="A16" s="54">
+        <v>15</v>
+      </c>
+      <c r="B16" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="54" t="s">
+        <v>596</v>
+      </c>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55">
+        <v>10</v>
+      </c>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="53">
+        <v>16</v>
+      </c>
+      <c r="B17" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+    </row>
+    <row r="18" spans="1:9" s="54" customFormat="1">
+      <c r="A18" s="54">
+        <v>17</v>
+      </c>
+      <c r="B18" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>571</v>
+      </c>
+      <c r="E18" s="55">
+        <v>2</v>
+      </c>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55">
+        <v>9</v>
+      </c>
+      <c r="H18" s="55">
+        <v>20</v>
+      </c>
+      <c r="I18" s="55"/>
+    </row>
+    <row r="19" spans="1:9" s="54" customFormat="1">
+      <c r="A19" s="54">
+        <v>18</v>
+      </c>
+      <c r="B19" s="54" t="s">
+        <v>577</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>574</v>
+      </c>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55">
+        <v>18</v>
+      </c>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+    </row>
+    <row r="20" spans="1:9" s="54" customFormat="1">
+      <c r="B20" s="54" t="s">
+        <v>577</v>
+      </c>
+      <c r="C20" s="54" t="s">
+        <v>576</v>
+      </c>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55">
+        <v>27</v>
+      </c>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+    </row>
+    <row r="21" spans="1:9" s="54" customFormat="1">
+      <c r="C21" s="54" t="s">
+        <v>594</v>
+      </c>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55">
+        <v>50</v>
+      </c>
+      <c r="I21" s="55"/>
+    </row>
+    <row r="22" spans="1:9" s="54" customFormat="1">
+      <c r="B22" s="54" t="s">
+        <v>585</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>582</v>
+      </c>
+      <c r="E22" s="55">
+        <v>2</v>
+      </c>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55">
+        <v>36</v>
+      </c>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+    </row>
+    <row r="23" spans="1:9" s="54" customFormat="1">
+      <c r="B23" s="54" t="s">
+        <v>585</v>
+      </c>
+      <c r="C23" s="54" t="s">
+        <v>581</v>
+      </c>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55">
+        <v>1</v>
+      </c>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55">
+        <v>30</v>
+      </c>
+      <c r="I23" s="55"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="53">
+        <v>19</v>
+      </c>
+      <c r="B24" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+    </row>
+    <row r="25" spans="1:9" s="57" customFormat="1">
+      <c r="A25" s="57">
+        <v>20</v>
+      </c>
+      <c r="B25" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="53">
+        <v>21</v>
+      </c>
+      <c r="B26" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="53" t="s">
+        <v>599</v>
+      </c>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+    </row>
+    <row r="27" spans="1:9" s="57" customFormat="1">
+      <c r="A27" s="57">
+        <v>22</v>
+      </c>
+      <c r="B27" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="53">
+        <v>23</v>
+      </c>
+      <c r="B28" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="53">
+        <v>24</v>
+      </c>
+      <c r="B29" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+    </row>
+    <row r="30" spans="1:9" s="57" customFormat="1">
+      <c r="A30" s="57">
+        <v>25</v>
+      </c>
+      <c r="B30" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="53">
+        <v>26</v>
+      </c>
+      <c r="B31" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+    </row>
+    <row r="32" spans="1:9" s="57" customFormat="1">
+      <c r="A32" s="57">
+        <v>27</v>
+      </c>
+      <c r="B32" s="57" t="s">
+        <v>466</v>
+      </c>
+      <c r="C32" s="57" t="s">
+        <v>573</v>
+      </c>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58">
+        <v>12</v>
+      </c>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+    </row>
+    <row r="33" spans="1:11" s="54" customFormat="1">
+      <c r="A33" s="54">
+        <v>28</v>
+      </c>
+      <c r="B33" s="54" t="s">
+        <v>466</v>
+      </c>
+      <c r="C33" s="54" t="s">
+        <v>572</v>
+      </c>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55">
+        <v>33</v>
+      </c>
+      <c r="H33" s="55">
+        <v>20</v>
+      </c>
+      <c r="I33" s="55"/>
+      <c r="K33" s="54" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="53">
+        <v>29</v>
+      </c>
+      <c r="B34" s="53" t="s">
+        <v>466</v>
+      </c>
+      <c r="C34" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="K34" s="53" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="53">
+        <v>30</v>
+      </c>
+      <c r="B35" s="53" t="s">
+        <v>466</v>
+      </c>
+      <c r="C35" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="53">
+        <v>31</v>
+      </c>
+      <c r="B36" s="53" t="s">
+        <v>466</v>
+      </c>
+      <c r="C36" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+    </row>
+    <row r="37" spans="1:11" s="57" customFormat="1">
+      <c r="A37" s="57">
+        <v>32</v>
+      </c>
+      <c r="B37" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="58"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="53">
+        <v>33</v>
+      </c>
+      <c r="B38" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="56"/>
+    </row>
+    <row r="39" spans="1:11" s="57" customFormat="1">
+      <c r="A39" s="57">
+        <v>34</v>
+      </c>
+      <c r="B39" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="58"/>
+    </row>
+    <row r="40" spans="1:11" s="57" customFormat="1">
+      <c r="A40" s="57">
+        <v>35</v>
+      </c>
+      <c r="B40" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" s="58"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="58"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="53">
+        <v>36</v>
+      </c>
+      <c r="B41" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="49" customFormat="1">
-      <c r="A2" s="49">
-        <v>1</v>
-      </c>
-      <c r="B2" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-    </row>
-    <row r="3" spans="1:10" s="49" customFormat="1">
-      <c r="A3" s="49">
-        <v>2</v>
-      </c>
-      <c r="B3" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50">
-        <v>50</v>
-      </c>
-      <c r="H3" s="50"/>
-    </row>
-    <row r="4" spans="1:10" s="49" customFormat="1">
-      <c r="A4" s="49">
-        <v>3</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="49" t="s">
+      <c r="E41" s="56"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="56"/>
+    </row>
+    <row r="42" spans="1:11" s="57" customFormat="1">
+      <c r="A42" s="57">
+        <v>37</v>
+      </c>
+      <c r="B42" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="57" t="s">
+        <v>591</v>
+      </c>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="58"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="53">
+        <v>38</v>
+      </c>
+      <c r="B43" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="56"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="56"/>
+      <c r="I43" s="56"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="53">
+        <v>39</v>
+      </c>
+      <c r="B44" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" s="56"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="56"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="53">
+        <v>40</v>
+      </c>
+      <c r="C45" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="56"/>
+      <c r="I45" s="56"/>
+    </row>
+    <row r="46" spans="1:11" s="57" customFormat="1">
+      <c r="A46" s="57">
+        <v>41</v>
+      </c>
+      <c r="B46" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="57" t="s">
+        <v>598</v>
+      </c>
+      <c r="E46" s="58">
+        <v>1</v>
+      </c>
+      <c r="F46" s="58">
+        <v>1</v>
+      </c>
+      <c r="G46" s="58">
+        <v>20</v>
+      </c>
+      <c r="H46" s="58">
+        <v>200</v>
+      </c>
+      <c r="I46" s="58"/>
+    </row>
+    <row r="47" spans="1:11" s="57" customFormat="1">
+      <c r="A47" s="57">
+        <v>42</v>
+      </c>
+      <c r="B47" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" s="57" t="s">
+        <v>592</v>
+      </c>
+      <c r="E47" s="58"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="58">
+        <v>54</v>
+      </c>
+      <c r="H47" s="58"/>
+      <c r="I47" s="58"/>
+    </row>
+    <row r="48" spans="1:11" s="57" customFormat="1">
+      <c r="A48" s="57">
+        <v>43</v>
+      </c>
+      <c r="B48" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="57" t="s">
+        <v>593</v>
+      </c>
+      <c r="E48" s="58">
+        <v>1</v>
+      </c>
+      <c r="F48" s="58"/>
+      <c r="G48" s="58">
+        <v>11</v>
+      </c>
+      <c r="H48" s="58"/>
+      <c r="I48" s="58"/>
+    </row>
+    <row r="52" spans="3:8" ht="35.25" customHeight="1">
+      <c r="C52" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52" s="59"/>
+      <c r="E52" s="59">
+        <f>SUM(E2:E48)</f>
+        <v>15</v>
+      </c>
+      <c r="F52" s="59">
+        <f t="shared" ref="F52:H52" si="0">SUM(F2:F48)</f>
         <v>14</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" s="49" customFormat="1">
-      <c r="A9" s="49">
-        <v>8</v>
-      </c>
-      <c r="B9" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50">
-        <v>10</v>
-      </c>
-      <c r="H9" s="50"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" s="49" customFormat="1">
-      <c r="A13" s="49">
-        <v>12</v>
-      </c>
-      <c r="B13" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" s="49" customFormat="1">
-      <c r="A15" s="49">
-        <v>14</v>
-      </c>
-      <c r="B15" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50">
-        <v>10</v>
-      </c>
-      <c r="H15" s="50"/>
-    </row>
-    <row r="16" spans="1:10" s="49" customFormat="1">
-      <c r="A16" s="49">
-        <v>15</v>
-      </c>
-      <c r="B16" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:10" s="49" customFormat="1">
-      <c r="A18" s="49">
-        <v>17</v>
-      </c>
-      <c r="B18" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50">
-        <v>20</v>
-      </c>
-      <c r="H18" s="50"/>
-    </row>
-    <row r="19" spans="1:10" s="49" customFormat="1">
-      <c r="A19" s="49">
-        <v>18</v>
-      </c>
-      <c r="B19" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="3">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="3">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="3">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="3">
-        <v>24</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="3">
-        <v>25</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="3">
-        <v>26</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="3">
-        <v>27</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="1:10" s="49" customFormat="1">
-      <c r="A29" s="49">
-        <v>28</v>
-      </c>
-      <c r="B29" s="49" t="s">
-        <v>488</v>
-      </c>
-      <c r="C29" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="J29" s="49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="3">
-        <v>29</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="J30" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="3">
-        <v>30</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="3">
-        <v>31</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="3">
-        <v>32</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="3">
-        <v>33</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="3">
-        <v>34</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="3">
-        <v>35</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="3">
-        <v>36</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="3">
-        <v>37</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="3">
-        <v>38</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="3">
-        <v>39</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="3">
-        <v>40</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="3">
-        <v>41</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="C43" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="C44" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="C45" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="J45" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="C46" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="C47" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="C48" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-    </row>
-    <row r="49" spans="3:8">
-      <c r="C49" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-    </row>
-    <row r="50" spans="3:8">
-      <c r="C50" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
+      <c r="G52" s="59">
+        <f t="shared" si="0"/>
+        <v>441</v>
+      </c>
+      <c r="H52" s="59">
+        <f t="shared" si="0"/>
+        <v>410</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="67.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="64" t="s">
+        <v>575</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="47" t="s">
+        <v>467</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47">
+        <v>1</v>
+      </c>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="47" t="s">
+        <v>468</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47">
+        <v>1</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="47" t="s">
+        <v>469</v>
+      </c>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47">
+        <v>1</v>
+      </c>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="47" t="s">
+        <v>470</v>
+      </c>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47">
+        <v>1</v>
+      </c>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="47" t="s">
+        <v>471</v>
+      </c>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47">
+        <v>1</v>
+      </c>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="47" t="s">
+        <v>472</v>
+      </c>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47">
+        <v>1</v>
+      </c>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="47" t="s">
+        <v>473</v>
+      </c>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47">
+        <v>1</v>
+      </c>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="47" t="s">
+        <v>474</v>
+      </c>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47">
+        <v>1</v>
+      </c>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="47" t="s">
+        <v>475</v>
+      </c>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47">
+        <v>1</v>
+      </c>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="47" t="s">
+        <v>476</v>
+      </c>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47">
+        <v>1</v>
+      </c>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="47" t="s">
+        <v>477</v>
+      </c>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47">
+        <v>1</v>
+      </c>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="47" t="s">
+        <v>478</v>
+      </c>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47">
+        <v>1</v>
+      </c>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47">
+        <v>1</v>
+      </c>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="47" t="s">
+        <v>480</v>
+      </c>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47">
+        <v>1</v>
+      </c>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="47" t="s">
+        <v>481</v>
+      </c>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47">
+        <v>1</v>
+      </c>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="47" t="s">
+        <v>482</v>
+      </c>
+      <c r="C17" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="47" t="s">
+        <v>483</v>
+      </c>
+      <c r="C18" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="47" t="s">
+        <v>484</v>
+      </c>
+      <c r="C19" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="47" t="s">
+        <v>485</v>
+      </c>
+      <c r="C20" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="47" t="s">
+        <v>486</v>
+      </c>
+      <c r="C21" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="47" t="s">
+        <v>487</v>
+      </c>
+      <c r="C22" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="47" t="s">
+        <v>488</v>
+      </c>
+      <c r="C23" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="47" t="s">
+        <v>489</v>
+      </c>
+      <c r="C24" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="47" t="s">
+        <v>490</v>
+      </c>
+      <c r="C25" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="47" t="s">
+        <v>491</v>
+      </c>
+      <c r="C26" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="47" t="s">
+        <v>492</v>
+      </c>
+      <c r="C27" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="47" t="s">
+        <v>493</v>
+      </c>
+      <c r="C28" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="B29" s="18"/>
+      <c r="C29" s="18">
+        <f>SUM(C2:C28)</f>
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="23.25">
-      <c r="A1" s="42" t="s">
-        <v>420</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-    </row>
-    <row r="2" spans="1:9" ht="23.25">
+    <row r="1" spans="1:11" ht="23.25">
+      <c r="A1" s="65" t="s">
+        <v>399</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+    </row>
+    <row r="2" spans="1:11" ht="23.25">
       <c r="A2" s="39"/>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="42" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="38"/>
@@ -2910,12 +3729,12 @@
       <c r="H2" s="38"/>
       <c r="I2" s="38"/>
     </row>
-    <row r="3" spans="1:9" ht="23.25">
+    <row r="3" spans="1:11" ht="23.25">
       <c r="A3" s="39">
         <v>1</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="C3" s="38"/>
       <c r="D3" s="38"/>
@@ -2925,7 +3744,7 @@
       <c r="H3" s="38"/>
       <c r="I3" s="38"/>
     </row>
-    <row r="4" spans="1:9" ht="36">
+    <row r="4" spans="1:11" ht="36">
       <c r="A4" s="39"/>
       <c r="B4" s="40" t="s">
         <v>3</v>
@@ -2938,12 +3757,12 @@
       <c r="H4" s="38"/>
       <c r="I4" s="38"/>
     </row>
-    <row r="5" spans="1:9" ht="23.25">
+    <row r="5" spans="1:11" ht="23.25">
       <c r="A5" s="39">
         <v>1</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -2952,19 +3771,19 @@
         <v>32</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="H5" s="41" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="I5" s="39"/>
     </row>
-    <row r="6" spans="1:9" ht="23.25">
+    <row r="6" spans="1:11" ht="23.25">
       <c r="A6" s="39">
         <v>2</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="C6" s="38"/>
       <c r="D6" s="38"/>
@@ -2973,19 +3792,19 @@
         <v>33</v>
       </c>
       <c r="G6" s="39" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="H6" s="41" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="I6" s="39"/>
     </row>
-    <row r="7" spans="1:9" ht="23.25">
+    <row r="7" spans="1:11" ht="23.25">
       <c r="A7" s="39">
         <v>3</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
@@ -2994,19 +3813,19 @@
         <v>34</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="H7" s="41" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="I7" s="39"/>
     </row>
-    <row r="8" spans="1:9" ht="23.25">
+    <row r="8" spans="1:11" ht="23.25">
       <c r="A8" s="39">
         <v>4</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="38"/>
@@ -3015,19 +3834,19 @@
         <v>35</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="H8" s="41" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="I8" s="39"/>
     </row>
-    <row r="9" spans="1:9" ht="23.25">
+    <row r="9" spans="1:11" ht="23.25">
       <c r="A9" s="39">
         <v>5</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="C9" s="38"/>
       <c r="D9" s="38"/>
@@ -3036,17 +3855,17 @@
         <v>36</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="H9" s="38"/>
       <c r="I9" s="38"/>
     </row>
-    <row r="10" spans="1:9" ht="23.25">
+    <row r="10" spans="1:11" ht="23.25">
       <c r="A10" s="39">
         <v>6</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>433</v>
+        <v>412</v>
       </c>
       <c r="C10" s="38"/>
       <c r="D10" s="38"/>
@@ -3055,17 +3874,17 @@
         <v>37</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="H10" s="38"/>
       <c r="I10" s="38"/>
     </row>
-    <row r="11" spans="1:9" ht="23.25">
+    <row r="11" spans="1:11" ht="23.25">
       <c r="A11" s="39">
         <v>7</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="C11" s="38"/>
       <c r="D11" s="38"/>
@@ -3074,17 +3893,17 @@
         <v>38</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="H11" s="38"/>
       <c r="I11" s="38"/>
     </row>
-    <row r="12" spans="1:9" ht="23.25">
+    <row r="12" spans="1:11" ht="23.25">
       <c r="A12" s="39">
         <v>8</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="C12" s="38"/>
       <c r="D12" s="38"/>
@@ -3093,17 +3912,17 @@
         <v>39</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="H12" s="38"/>
       <c r="I12" s="38"/>
     </row>
-    <row r="13" spans="1:9" ht="23.25">
+    <row r="13" spans="1:11" ht="23.25">
       <c r="A13" s="39">
         <v>9</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="C13" s="38"/>
       <c r="D13" s="38"/>
@@ -3112,17 +3931,17 @@
         <v>40</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="H13" s="38"/>
       <c r="I13" s="38"/>
     </row>
-    <row r="14" spans="1:9" ht="23.25">
+    <row r="14" spans="1:11" ht="23.25">
       <c r="A14" s="39">
         <v>10</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="C14" s="38"/>
       <c r="D14" s="38"/>
@@ -3131,17 +3950,17 @@
         <v>41</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
     </row>
-    <row r="15" spans="1:9" ht="23.25">
+    <row r="15" spans="1:11" ht="23.25">
       <c r="A15" s="39">
         <v>11</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>443</v>
+        <v>422</v>
       </c>
       <c r="C15" s="38"/>
       <c r="D15" s="38"/>
@@ -3150,17 +3969,17 @@
         <v>42</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>444</v>
+        <v>423</v>
       </c>
       <c r="H15" s="38"/>
       <c r="I15" s="38"/>
     </row>
-    <row r="16" spans="1:9" ht="23.25">
+    <row r="16" spans="1:11" ht="23.25">
       <c r="A16" s="39">
         <v>12</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>445</v>
+        <v>424</v>
       </c>
       <c r="C16" s="38"/>
       <c r="D16" s="38"/>
@@ -3169,7 +3988,7 @@
         <v>43</v>
       </c>
       <c r="G16" s="39" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
       <c r="H16" s="38"/>
       <c r="I16" s="38"/>
@@ -3179,7 +3998,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
       <c r="C17" s="38"/>
       <c r="D17" s="38"/>
@@ -3188,7 +4007,7 @@
         <v>44</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="23.25">
@@ -3196,7 +4015,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="C18" s="38"/>
       <c r="D18" s="38"/>
@@ -3209,7 +4028,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>450</v>
+        <v>429</v>
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="38"/>
@@ -3222,7 +4041,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="38"/>
@@ -3235,7 +4054,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>452</v>
+        <v>431</v>
       </c>
       <c r="C21" s="38"/>
       <c r="D21" s="38"/>
@@ -3248,7 +4067,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>453</v>
+        <v>432</v>
       </c>
       <c r="C22" s="38"/>
       <c r="D22" s="38"/>
@@ -3261,7 +4080,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>454</v>
+        <v>433</v>
       </c>
       <c r="C23" s="38"/>
       <c r="D23" s="38"/>
@@ -3274,7 +4093,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>455</v>
+        <v>434</v>
       </c>
       <c r="C24" s="38"/>
       <c r="D24" s="38"/>
@@ -3287,7 +4106,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
       <c r="C25" s="38"/>
       <c r="D25" s="38"/>
@@ -3300,7 +4119,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="C26" s="38"/>
       <c r="D26" s="38"/>
@@ -3313,7 +4132,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>458</v>
+        <v>437</v>
       </c>
       <c r="C27" s="38"/>
       <c r="D27" s="38"/>
@@ -3326,7 +4145,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="39" t="s">
-        <v>459</v>
+        <v>438</v>
       </c>
       <c r="C28" s="38"/>
       <c r="D28" s="38"/>
@@ -3339,7 +4158,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>460</v>
+        <v>439</v>
       </c>
       <c r="C29" s="38"/>
       <c r="D29" s="38"/>
@@ -3352,7 +4171,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>461</v>
+        <v>440</v>
       </c>
       <c r="C30" s="38"/>
       <c r="D30" s="38"/>
@@ -3365,7 +4184,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>462</v>
+        <v>441</v>
       </c>
       <c r="C31" s="38"/>
       <c r="D31" s="38"/>
@@ -3378,7 +4197,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="39" t="s">
-        <v>463</v>
+        <v>442</v>
       </c>
       <c r="C32" s="38"/>
       <c r="D32" s="38"/>
@@ -3391,7 +4210,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>464</v>
+        <v>443</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="23.25">
@@ -3399,7 +4218,7 @@
         <v>30</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>465</v>
+        <v>444</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="23.25">
@@ -3407,7 +4226,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>466</v>
+        <v>445</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3419,47 +4238,305 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="24"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" style="44" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" style="33" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="44" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="44" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="44" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="44"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15">
+      <c r="A1" s="63" t="s">
+        <v>465</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="25.5" customHeight="1">
+      <c r="A3" s="28">
+        <v>1</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>446</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28">
+        <f>SUM(A3:C3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="35.25" customHeight="1">
+      <c r="A4" s="28">
+        <v>2</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>447</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>448</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A5" s="28">
+        <v>3</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>449</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>450</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="23.25" customHeight="1">
+      <c r="A6" s="28">
+        <v>4</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>452</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>451</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="27" customHeight="1">
+      <c r="A7" s="28">
+        <v>5</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="22.5" customHeight="1">
+      <c r="A8" s="28">
+        <v>6</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="22.5" customHeight="1">
+      <c r="A9" s="28">
+        <v>7</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>461</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>462</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="28">
+        <v>8</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>457</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>458</v>
+      </c>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="28">
+        <v>9</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>460</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="25.5" customHeight="1">
+      <c r="A12" s="28">
+        <v>10</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>463</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>464</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="36.75" customHeight="1">
+      <c r="A13" s="28"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+    </row>
+    <row r="14" spans="1:6" ht="30" customHeight="1">
+      <c r="A14" s="28"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="30">
+        <f>SUM(D3:D13)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="30">
+        <f>SUM(E3:E13)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="30">
+        <f>SUM(F3:F13)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="28"/>
+      <c r="B15" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="C15" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="28"/>
+    </row>
+    <row r="17" spans="1:1" s="44" customFormat="1" ht="15">
+      <c r="A17" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="24"/>
   <cols>
     <col min="1" max="1" width="9.5703125" style="45" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" style="33" customWidth="1"/>
     <col min="3" max="3" width="36.7109375" style="45" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" style="45" customWidth="1"/>
     <col min="5" max="5" width="12.140625" style="45" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="51" t="s">
-        <v>486</v>
-      </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-    </row>
-    <row r="2" spans="1:6" ht="24">
+    <row r="1" spans="1:6" ht="15">
+      <c r="A1" s="63" t="s">
+        <v>580</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>5</v>
@@ -3472,211 +4549,1125 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A3" s="28">
-        <v>1</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>467</v>
+      <c r="A3" s="46">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>495</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="46">
+        <f>SUM(A3:C3)</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="46"/>
+    </row>
+    <row r="4" spans="1:6" ht="35.25" customHeight="1">
+      <c r="A4" s="46">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>496</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="46">
+        <v>1</v>
+      </c>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+    </row>
+    <row r="5" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A5" s="46">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="23.25" customHeight="1">
+      <c r="A6" s="46">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>505</v>
+      </c>
+      <c r="C6" s="33"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="27" customHeight="1">
+      <c r="A7" s="46">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>498</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="22.5" customHeight="1">
+      <c r="A8" s="46">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>499</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="22.5" customHeight="1">
+      <c r="A9" s="46">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>494</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="46">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>501</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="46">
+        <v>9</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>500</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="25.5" customHeight="1">
+      <c r="A12" s="46">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>502</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="25.5" customHeight="1">
+      <c r="A13" s="46">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>503</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="25.5" customHeight="1">
+      <c r="A14" s="46">
+        <v>12</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>504</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="36.75" customHeight="1">
+      <c r="A15" s="46"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+    </row>
+    <row r="16" spans="1:6" ht="30" customHeight="1">
+      <c r="A16" s="46"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="30">
+        <f>SUM(D3:D15)</f>
+        <v>2</v>
+      </c>
+      <c r="E16" s="30">
+        <f>SUM(E3:E15)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="30">
+        <f>SUM(F3:F15)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="46"/>
+      <c r="B17" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="C17" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="46"/>
+    </row>
+    <row r="19" spans="1:3" ht="15">
+      <c r="A19" s="46"/>
+      <c r="B19" s="45"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="24"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" style="45" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" style="33" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="45" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="45" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="45" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="45"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15">
+      <c r="A1" s="63" t="s">
+        <v>506</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="25.5" customHeight="1">
+      <c r="A3" s="46">
+        <v>1</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>507</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28">
+        <v>508</v>
+      </c>
+      <c r="D3" s="46">
         <f>SUM(A3:C3)</f>
         <v>1</v>
       </c>
+      <c r="E3" s="46"/>
     </row>
     <row r="4" spans="1:6" ht="35.25" customHeight="1">
-      <c r="A4" s="28">
+      <c r="A4" s="46">
         <v>2</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>468</v>
+      <c r="B4" s="47" t="s">
+        <v>509</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>469</v>
-      </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28">
-        <v>1</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="D4" s="46">
+        <v>1</v>
+      </c>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
     </row>
     <row r="5" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A5" s="28">
+      <c r="A5" s="46">
         <v>3</v>
       </c>
-      <c r="B5" s="33" t="s">
-        <v>470</v>
+      <c r="B5" s="47" t="s">
+        <v>510</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>471</v>
-      </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28">
+        <v>102</v>
+      </c>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="23.25" customHeight="1">
-      <c r="A6" s="28">
+      <c r="A6" s="46">
         <v>4</v>
       </c>
-      <c r="B6" s="33" t="s">
-        <v>473</v>
+      <c r="B6" s="47" t="s">
+        <v>509</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>472</v>
-      </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28">
+        <v>102</v>
+      </c>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="27" customHeight="1">
-      <c r="A7" s="28">
+      <c r="A7" s="46">
         <v>5</v>
       </c>
-      <c r="B7" s="33" t="s">
-        <v>474</v>
+      <c r="B7" s="47" t="s">
+        <v>511</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>475</v>
-      </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28">
+        <v>512</v>
+      </c>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A8" s="28">
+      <c r="A8" s="46">
         <v>6</v>
       </c>
-      <c r="B8" s="33" t="s">
-        <v>476</v>
+      <c r="B8" s="47" t="s">
+        <v>513</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>477</v>
-      </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28">
+        <v>514</v>
+      </c>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A9" s="28">
+      <c r="A9" s="46">
         <v>7</v>
       </c>
-      <c r="B9" s="33" t="s">
-        <v>482</v>
+      <c r="B9" s="47" t="s">
+        <v>515</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>483</v>
-      </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="24">
-      <c r="A10" s="28">
+        <v>516</v>
+      </c>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="46">
         <v>8</v>
       </c>
-      <c r="B10" s="33" t="s">
-        <v>478</v>
+      <c r="B10" s="47" t="s">
+        <v>517</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>479</v>
-      </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="24">
-      <c r="A11" s="28">
+        <v>518</v>
+      </c>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="46">
         <v>9</v>
       </c>
-      <c r="B11" s="33" t="s">
-        <v>480</v>
+      <c r="B11" s="47" t="s">
+        <v>519</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>481</v>
-      </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28">
+        <v>512</v>
+      </c>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A12" s="28">
+      <c r="A12" s="46">
         <v>10</v>
       </c>
-      <c r="B12" s="33" t="s">
-        <v>484</v>
+      <c r="B12" s="47" t="s">
+        <v>520</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>485</v>
-      </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="36.75" customHeight="1">
-      <c r="A13" s="28"/>
+        <v>521</v>
+      </c>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="25.5" customHeight="1">
+      <c r="A13" s="46">
+        <v>11</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>522</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>523</v>
+      </c>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="25.5" customHeight="1">
+      <c r="A14" s="46">
+        <v>12</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>524</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>525</v>
+      </c>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="25.5" customHeight="1">
+      <c r="A15" s="46">
+        <v>13</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>526</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>527</v>
+      </c>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="25.5" customHeight="1">
+      <c r="A16" s="46">
+        <v>14</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>528</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>529</v>
+      </c>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="25.5" customHeight="1">
+      <c r="A17" s="46">
+        <v>15</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>530</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>531</v>
+      </c>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="25.5" customHeight="1">
+      <c r="A18" s="46">
+        <v>16</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>532</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>533</v>
+      </c>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="25.5" customHeight="1">
+      <c r="A19" s="46">
+        <v>17</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>534</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>535</v>
+      </c>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="25.5" customHeight="1">
+      <c r="A20" s="46">
+        <v>18</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>536</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>512</v>
+      </c>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="25.5" customHeight="1">
+      <c r="A21" s="46">
+        <v>19</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>537</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>538</v>
+      </c>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="25.5" customHeight="1">
+      <c r="A22" s="46">
+        <v>20</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>539</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>538</v>
+      </c>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="25.5" customHeight="1">
+      <c r="A23" s="46">
+        <v>21</v>
+      </c>
+      <c r="B23" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>541</v>
+      </c>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="25.5" customHeight="1">
+      <c r="A24" s="46">
+        <v>22</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>542</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>543</v>
+      </c>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="25.5" customHeight="1">
+      <c r="A25" s="46">
+        <v>23</v>
+      </c>
+      <c r="B25" s="47" t="s">
+        <v>544</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>545</v>
+      </c>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="25.5" customHeight="1">
+      <c r="A26" s="46">
+        <v>24</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>520</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>546</v>
+      </c>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="25.5" customHeight="1">
+      <c r="A27" s="46">
+        <v>25</v>
+      </c>
+      <c r="B27" s="47" t="s">
+        <v>547</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>538</v>
+      </c>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="25.5" customHeight="1">
+      <c r="A28" s="46">
+        <v>26</v>
+      </c>
+      <c r="B28" s="47" t="s">
+        <v>544</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>548</v>
+      </c>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="25.5" customHeight="1">
+      <c r="A29" s="46">
+        <v>27</v>
+      </c>
+      <c r="B29" s="47" t="s">
+        <v>549</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>550</v>
+      </c>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="25.5" customHeight="1">
+      <c r="A30" s="46">
+        <v>28</v>
+      </c>
+      <c r="B30" s="47" t="s">
+        <v>551</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>552</v>
+      </c>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="25.5" customHeight="1">
+      <c r="A31" s="46">
+        <v>29</v>
+      </c>
+      <c r="B31" s="47" t="s">
+        <v>553</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>554</v>
+      </c>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="25.5" customHeight="1">
+      <c r="A32" s="46">
+        <v>30</v>
+      </c>
+      <c r="B32" s="47" t="s">
+        <v>555</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>556</v>
+      </c>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="25.5" customHeight="1">
+      <c r="A33" s="46">
+        <v>31</v>
+      </c>
+      <c r="B33" s="47" t="s">
+        <v>557</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>558</v>
+      </c>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="25.5" customHeight="1">
+      <c r="A34" s="46">
+        <v>32</v>
+      </c>
+      <c r="B34" s="47" t="s">
+        <v>559</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>560</v>
+      </c>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="25.5" customHeight="1">
+      <c r="A35" s="46">
+        <v>33</v>
+      </c>
+      <c r="B35" s="47" t="s">
+        <v>561</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>548</v>
+      </c>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="25.5" customHeight="1">
+      <c r="A36" s="46">
+        <v>34</v>
+      </c>
+      <c r="B36" s="47" t="s">
+        <v>562</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>554</v>
+      </c>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="25.5" customHeight="1">
+      <c r="A37" s="46">
+        <v>35</v>
+      </c>
+      <c r="B37" s="47" t="s">
+        <v>563</v>
+      </c>
+      <c r="C37" s="33"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="25.5" customHeight="1">
+      <c r="A38" s="46">
+        <v>36</v>
+      </c>
+      <c r="B38" s="47" t="s">
+        <v>564</v>
+      </c>
+      <c r="C38" s="33"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="25.5" customHeight="1">
+      <c r="A39" s="46">
+        <v>37</v>
+      </c>
+      <c r="B39" s="47" t="s">
+        <v>565</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>566</v>
+      </c>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="36.75" customHeight="1">
+      <c r="A40" s="46">
+        <v>38</v>
+      </c>
+      <c r="B40" s="47" t="s">
+        <v>567</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>568</v>
+      </c>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="30" customHeight="1">
+      <c r="A41" s="46"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="30">
+        <f>SUM(D3:D40)</f>
+        <v>2</v>
+      </c>
+      <c r="E41" s="30">
+        <f>SUM(E3:E40)</f>
+        <v>0</v>
+      </c>
+      <c r="F41" s="30">
+        <f>SUM(F3:F40)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="46"/>
+      <c r="B42" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="C42" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="46"/>
+    </row>
+    <row r="44" spans="1:6" ht="15">
+      <c r="A44" s="46"/>
+      <c r="B44" s="45"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="24"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" style="45" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" style="33" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="45" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="45" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="45" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="45"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15">
+      <c r="A1" s="63" t="s">
+        <v>569</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="25.5" customHeight="1">
+      <c r="A3" s="46">
+        <v>1</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>570</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>595</v>
+      </c>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="35.25" customHeight="1">
+      <c r="A4" s="46">
+        <v>2</v>
+      </c>
+      <c r="B4" s="47"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="50"/>
+    </row>
+    <row r="5" spans="1:7" ht="33.75" customHeight="1">
+      <c r="A5" s="46">
+        <v>3</v>
+      </c>
+      <c r="B5" s="47"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+    </row>
+    <row r="6" spans="1:7" ht="23.25" customHeight="1">
+      <c r="A6" s="46">
+        <v>4</v>
+      </c>
+      <c r="B6" s="47"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+    </row>
+    <row r="7" spans="1:7" ht="27" customHeight="1">
+      <c r="A7" s="46">
+        <v>5</v>
+      </c>
+      <c r="B7" s="47"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+    </row>
+    <row r="8" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A8" s="46">
+        <v>6</v>
+      </c>
+      <c r="B8" s="47"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+    </row>
+    <row r="9" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A9" s="46">
+        <v>7</v>
+      </c>
+      <c r="B9" s="47"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="46">
+        <v>8</v>
+      </c>
+      <c r="B10" s="47"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="46">
+        <v>9</v>
+      </c>
+      <c r="B11" s="47"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+    </row>
+    <row r="12" spans="1:7" ht="25.5" customHeight="1">
+      <c r="A12" s="46">
+        <v>10</v>
+      </c>
+      <c r="B12" s="47"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+    </row>
+    <row r="13" spans="1:7" ht="25.5" customHeight="1">
+      <c r="A13" s="46">
+        <v>11</v>
+      </c>
+      <c r="B13" s="47"/>
       <c r="C13" s="33"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-    </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1">
-      <c r="A14" s="28"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+    </row>
+    <row r="14" spans="1:7" ht="25.5" customHeight="1">
+      <c r="A14" s="46">
+        <v>12</v>
+      </c>
+      <c r="B14" s="47"/>
       <c r="C14" s="33"/>
-      <c r="D14" s="30">
-        <f>SUM(D3:D13)</f>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+    </row>
+    <row r="15" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A15" s="46"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1">
+      <c r="A16" s="46"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="30">
+        <f>SUM(D3:D15)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="30">
-        <f>SUM(E3:E13)</f>
+      <c r="E16" s="30">
+        <f>SUM(E3:E15)</f>
+        <v>1</v>
+      </c>
+      <c r="F16" s="30">
+        <f>SUM(F3:F15)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="30">
-        <f>SUM(F3:F13)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="24">
-      <c r="A15" s="28"/>
-      <c r="B15" s="36" t="s">
-        <v>264</v>
-      </c>
-      <c r="C15" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="24">
-      <c r="A16" s="28"/>
-    </row>
-    <row r="17" spans="1:1" ht="24">
-      <c r="A17" s="28"/>
-    </row>
-    <row r="19" spans="1:1" ht="24"/>
-    <row r="20" spans="1:1" ht="24"/>
-    <row r="21" spans="1:1" ht="24"/>
-    <row r="22" spans="1:1" ht="24"/>
-    <row r="23" spans="1:1" ht="24"/>
-    <row r="24" spans="1:1" ht="24"/>
-    <row r="26" spans="1:1" ht="24"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="46"/>
+      <c r="B17" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="C17" s="37">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="46"/>
+    </row>
+    <row r="19" spans="1:3" ht="15">
+      <c r="A19" s="46"/>
+      <c r="B19" s="45"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
@@ -3689,8 +5680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
@@ -3703,24 +5694,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" customHeight="1">
-      <c r="A1" s="46" t="s">
-        <v>302</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
+      <c r="A1" s="61" t="s">
+        <v>589</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="1:6" ht="21" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>5</v>
@@ -3737,10 +5728,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
@@ -3753,10 +5744,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -3769,10 +5760,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -3785,10 +5776,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -3801,10 +5792,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4">
@@ -3817,10 +5808,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4">
@@ -3833,10 +5824,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4">
@@ -3849,10 +5840,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -3865,10 +5856,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -3881,10 +5872,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -3897,10 +5888,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -3913,10 +5904,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -3929,10 +5920,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -3945,10 +5936,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -3961,10 +5952,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -3977,10 +5968,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -3993,10 +5984,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -4009,10 +6000,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -4025,10 +6016,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -4041,10 +6032,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -4057,10 +6048,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -4073,10 +6064,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -4089,10 +6080,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -4105,10 +6096,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -4121,10 +6112,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -4137,10 +6128,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -4153,10 +6144,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -4169,10 +6160,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -4185,10 +6176,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -4201,10 +6192,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -4217,7 +6208,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="4"/>
@@ -4231,10 +6222,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -4247,10 +6238,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -4263,10 +6254,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -4279,10 +6270,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4">
@@ -4295,10 +6286,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4">
@@ -4311,10 +6302,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -4327,10 +6318,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -4343,10 +6334,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -4359,10 +6350,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -4375,10 +6366,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -4391,10 +6382,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -4407,7 +6398,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="4">
@@ -4421,10 +6412,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="D46" s="26"/>
       <c r="E46" s="26">
@@ -4437,10 +6428,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="D47" s="26"/>
       <c r="E47" s="26"/>
@@ -4453,10 +6444,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="D48" s="26"/>
       <c r="E48" s="26"/>
@@ -4469,10 +6460,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="D49" s="26"/>
       <c r="E49" s="26"/>
@@ -4521,7 +6512,7 @@
         <f>SUM(F3:F49)</f>
         <v>35</v>
       </c>
-      <c r="G53" s="44">
+      <c r="G53" s="43">
         <f>SUM(D53,E53,F53)</f>
         <v>47</v>
       </c>
@@ -4643,40 +6634,40 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
     <col min="3" max="3" width="36.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="46" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
+      <c r="A1" s="61" t="s">
+        <v>590</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -4693,10 +6684,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="E3" s="24"/>
       <c r="F3" s="4">
@@ -4708,10 +6699,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="C4" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="E4" s="24"/>
       <c r="F4" s="24">
@@ -4723,10 +6714,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="C5" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="E5" s="24">
         <v>1</v>
@@ -4738,13 +6729,24 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="C6" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="E6" s="24"/>
       <c r="F6" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>356</v>
+      </c>
+      <c r="E7" s="49">
         <v>1</v>
       </c>
     </row>
@@ -4761,7 +6763,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4774,25 +6776,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="46" t="s">
-        <v>304</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
+      <c r="A1" s="61" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
     </row>
     <row r="2" spans="1:7" s="13" customFormat="1">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>5</v>
@@ -4809,10 +6811,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -4824,10 +6826,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -4838,10 +6840,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -4852,10 +6854,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -4866,10 +6868,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -4880,10 +6882,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="C8" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -4894,10 +6896,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="C9" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -4908,10 +6910,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="C10" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -4922,10 +6924,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="C11" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -4936,10 +6938,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="C12" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -4980,7 +6982,7 @@
   <dimension ref="A1:G373"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5181,43 +7183,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="7" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A1" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
+      <c r="A1" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:7" s="7" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A2" s="47" t="s">
-        <v>305</v>
-      </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="A2" s="62" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
     </row>
     <row r="3" spans="1:7" s="16" customFormat="1" ht="23.25" customHeight="1">
       <c r="A3" s="14" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="G3" s="16" t="s">
         <v>3</v>
@@ -5225,13 +7227,13 @@
     </row>
     <row r="4" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A4" s="8" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="10">
@@ -5246,13 +7248,13 @@
     </row>
     <row r="5" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="8" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="D5" s="9"/>
       <c r="G5" s="10">
@@ -5261,13 +7263,13 @@
     </row>
     <row r="6" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="D6" s="9"/>
       <c r="G6" s="10">
@@ -5276,13 +7278,13 @@
     </row>
     <row r="7" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="D7" s="9"/>
       <c r="G7" s="10">
@@ -5291,13 +7293,13 @@
     </row>
     <row r="8" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A8" s="8" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="D8" s="9"/>
       <c r="G8" s="10">
@@ -5306,13 +7308,13 @@
     </row>
     <row r="9" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A9" s="8" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="D9" s="9"/>
       <c r="G9" s="10">
@@ -5321,13 +7323,13 @@
     </row>
     <row r="10" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A10" s="8" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="D10" s="9"/>
       <c r="G10" s="10">
@@ -5336,13 +7338,13 @@
     </row>
     <row r="11" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A11" s="8" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="D11" s="9"/>
       <c r="G11" s="10">
@@ -5351,13 +7353,13 @@
     </row>
     <row r="12" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="D12" s="9"/>
       <c r="G12" s="10">
@@ -5366,13 +7368,13 @@
     </row>
     <row r="13" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="D13" s="9"/>
       <c r="G13" s="10">
@@ -5381,13 +7383,13 @@
     </row>
     <row r="14" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="D14" s="9"/>
       <c r="G14" s="10">
@@ -5396,13 +7398,13 @@
     </row>
     <row r="15" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="D15" s="9"/>
       <c r="G15" s="10">
@@ -5411,13 +7413,13 @@
     </row>
     <row r="16" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A16" s="8" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="D16" s="9"/>
       <c r="G16" s="10">
@@ -5426,16 +7428,16 @@
     </row>
     <row r="17" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A17" s="8" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="G17" s="10">
         <v>1</v>
@@ -5443,13 +7445,13 @@
     </row>
     <row r="18" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A18" s="8" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="D18" s="9"/>
       <c r="G18" s="10">
@@ -5458,16 +7460,16 @@
     </row>
     <row r="19" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A19" s="8" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="G19" s="10">
         <v>1</v>
@@ -5475,13 +7477,13 @@
     </row>
     <row r="20" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="D20" s="9"/>
       <c r="G20" s="10">
@@ -5490,13 +7492,13 @@
     </row>
     <row r="21" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A21" s="8" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="D21" s="9"/>
       <c r="G21" s="10">
@@ -5505,13 +7507,13 @@
     </row>
     <row r="22" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="D22" s="9"/>
       <c r="G22" s="10">
@@ -5520,16 +7522,16 @@
     </row>
     <row r="23" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A23" s="8" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="G23" s="10">
         <v>1</v>
@@ -5537,13 +7539,13 @@
     </row>
     <row r="24" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A24" s="8" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="D24" s="9"/>
       <c r="G24" s="10">
@@ -5552,16 +7554,16 @@
     </row>
     <row r="25" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A25" s="8" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="G25" s="10">
         <v>1</v>
@@ -5569,13 +7571,13 @@
     </row>
     <row r="26" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="D26" s="9"/>
       <c r="G26" s="10">
@@ -5584,13 +7586,13 @@
     </row>
     <row r="27" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A27" s="8" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="D27" s="9"/>
       <c r="G27" s="10">
@@ -5599,13 +7601,13 @@
     </row>
     <row r="28" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A28" s="8" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="D28" s="9"/>
       <c r="G28" s="10">
@@ -5614,13 +7616,13 @@
     </row>
     <row r="29" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A29" s="8" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="D29" s="9"/>
       <c r="G29" s="10">
@@ -5629,13 +7631,13 @@
     </row>
     <row r="30" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A30" s="8" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="D30" s="9"/>
       <c r="G30" s="10">
@@ -5644,13 +7646,13 @@
     </row>
     <row r="31" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A31" s="8" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="D31" s="9"/>
       <c r="G31" s="10">
@@ -6715,7 +8717,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:C16"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6728,24 +8730,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="46" t="s">
-        <v>306</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
+      <c r="A1" s="61" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>5</v>
@@ -6762,10 +8764,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="C3" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="D3" s="4">
         <f>SUM(A3:C3)</f>
@@ -6779,10 +8781,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -6795,10 +8797,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="C5" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -6811,10 +8813,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="C6" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -6827,10 +8829,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="C7" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -6843,10 +8845,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="C8" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -6859,10 +8861,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="C9" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -6875,10 +8877,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="C10" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -6891,10 +8893,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="C11" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -6907,10 +8909,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="C12" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -6923,10 +8925,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="C13" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -6950,7 +8952,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="B16" s="20" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="C16" s="21">
         <v>20</v>
@@ -6969,7 +8971,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:C17"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6982,24 +8984,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="46" t="s">
-        <v>307</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
+      <c r="A1" s="61" t="s">
+        <v>286</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>5</v>
@@ -7016,10 +9018,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="C3" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4">
@@ -7032,10 +9034,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4">
@@ -7047,7 +9049,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="4"/>
@@ -7061,10 +9063,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -7077,10 +9079,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -7093,10 +9095,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -7109,10 +9111,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -7125,10 +9127,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -7141,7 +9143,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -7154,7 +9156,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -7167,7 +9169,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -7180,10 +9182,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
@@ -7209,7 +9211,7 @@
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="20" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="C17" s="21">
         <v>0</v>
@@ -7228,8 +9230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7242,24 +9244,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="46" t="s">
-        <v>308</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
+      <c r="A1" s="61" t="s">
+        <v>287</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>5</v>
@@ -7276,10 +9278,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="C3" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4">
@@ -7292,10 +9294,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="C4" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4">
@@ -7307,10 +9309,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="C5" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -7323,10 +9325,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="C6" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -7339,10 +9341,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="C7" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -7355,10 +9357,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="C8" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -7371,10 +9373,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="C9" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -7387,10 +9389,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="C10" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -7403,10 +9405,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="C11" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -7419,10 +9421,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="C12" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -7435,10 +9437,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="C13" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -7451,10 +9453,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="C14" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -7467,10 +9469,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="C15" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -7483,10 +9485,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="C16" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -7499,10 +9501,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="C17" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -7515,10 +9517,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="C18" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -7531,10 +9533,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="C19" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -7547,10 +9549,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="C20" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -7563,10 +9565,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="C21" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -7579,10 +9581,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="C22" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -7595,10 +9597,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="C23" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -7611,10 +9613,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="C24" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -7627,10 +9629,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="C25" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -7643,10 +9645,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="C26" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -7659,10 +9661,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="C27" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -7675,10 +9677,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="C28" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -7691,10 +9693,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="C29" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -7707,10 +9709,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="C30" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -7723,10 +9725,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="C31" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -7739,10 +9741,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="C32" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -7755,10 +9757,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>364</v>
+        <v>343</v>
       </c>
       <c r="C33" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -7771,10 +9773,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="C34" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -7787,10 +9789,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="C35" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -7810,7 +9812,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="B38" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="D38" s="18">
         <f>SUM(D4:D13)</f>
@@ -7827,7 +9829,7 @@
     </row>
     <row r="39" spans="1:6">
       <c r="B39" s="20" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="C39" s="21">
         <v>20</v>
@@ -7848,8 +9850,8 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24"/>
@@ -7863,24 +9865,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15">
-      <c r="A1" s="48" t="s">
-        <v>386</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
+      <c r="A1" s="63" t="s">
+        <v>365</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>5</v>
@@ -7897,10 +9899,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
@@ -7914,10 +9916,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
@@ -7930,10 +9932,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
@@ -7946,10 +9948,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
@@ -7962,10 +9964,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
@@ -7978,10 +9980,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
@@ -7994,10 +9996,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
@@ -8010,10 +10012,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
@@ -8026,10 +10028,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
@@ -8042,10 +10044,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
@@ -8058,10 +10060,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
@@ -8074,10 +10076,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
@@ -8090,7 +10092,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="C15" s="33"/>
       <c r="D15" s="28"/>
@@ -8104,10 +10106,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
@@ -8120,10 +10122,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
@@ -8136,10 +10138,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="D18" s="28"/>
       <c r="E18" s="28"/>
@@ -8152,10 +10154,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="D19" s="28"/>
       <c r="E19" s="28"/>
@@ -8168,10 +10170,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="D20" s="28"/>
       <c r="E20" s="28"/>
@@ -8205,7 +10207,7 @@
     <row r="23" spans="1:6">
       <c r="A23" s="28"/>
       <c r="B23" s="36" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="C23" s="37">
         <v>0</v>

--- a/trunk/ผ้าป่า2555.xlsx
+++ b/trunk/ผ้าป่า2555.xlsx
@@ -2468,8 +2468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3105,8 +3105,12 @@
       </c>
       <c r="E34" s="56"/>
       <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
+      <c r="G34" s="56">
+        <v>60</v>
+      </c>
+      <c r="H34" s="56">
+        <v>30</v>
+      </c>
       <c r="I34" s="56"/>
       <c r="K34" s="53" t="s">
         <v>42</v>
@@ -3362,11 +3366,11 @@
       </c>
       <c r="G52" s="59">
         <f t="shared" si="0"/>
-        <v>441</v>
+        <v>501</v>
       </c>
       <c r="H52" s="59">
         <f t="shared" si="0"/>
-        <v>410</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/ผ้าป่า2555.xlsx
+++ b/trunk/ผ้าป่า2555.xlsx
@@ -22,13 +22,14 @@
     <sheet name="สายบางพลัด พี่วัตร" sheetId="13" r:id="rId13"/>
     <sheet name="k.ต่อ" sheetId="14" r:id="rId14"/>
     <sheet name="วิเชียร" sheetId="15" r:id="rId15"/>
+    <sheet name="สายคุณชุดานันท์" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="610">
   <si>
     <t>ลำดับ</t>
   </si>
@@ -120,9 +121,6 @@
     <t>สาย k. ไทย</t>
   </si>
   <si>
-    <t>สาย k. จารย์ยม</t>
-  </si>
-  <si>
     <t>""</t>
   </si>
   <si>
@@ -144,12 +142,6 @@
     <t>สาย k.ชื่น</t>
   </si>
   <si>
-    <t>สาย k. กะเพา</t>
-  </si>
-  <si>
-    <t>สาย k. ทูลบ้านโพนสว่าง</t>
-  </si>
-  <si>
     <t>สาย k. ป๊อก  ประเทศฮ่องกง</t>
   </si>
   <si>
@@ -1831,6 +1823,42 @@
   </si>
   <si>
     <t>สาย บริษัท เอไอซอฟต์ จำกัด (คุณการณ์)</t>
+  </si>
+  <si>
+    <t>คุณ ชุดานันท์</t>
+  </si>
+  <si>
+    <t>คุณ สกุลรัตน์-ธีรเทพ</t>
+  </si>
+  <si>
+    <t>คุณ อภิรดี</t>
+  </si>
+  <si>
+    <t>อยู่ดี</t>
+  </si>
+  <si>
+    <t>คุณ รำไพ</t>
+  </si>
+  <si>
+    <t>แสงสะโส</t>
+  </si>
+  <si>
+    <t>คุณ ศิรินารี</t>
+  </si>
+  <si>
+    <t>กาฬภักดี</t>
+  </si>
+  <si>
+    <t>คุณ ยินดี</t>
+  </si>
+  <si>
+    <t>นาคมุณี</t>
+  </si>
+  <si>
+    <t>สายคุณชุดานันท์</t>
+  </si>
+  <si>
+    <t>อรรถชัย (นิน)</t>
   </si>
 </sst>
 </file>
@@ -1917,7 +1945,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1972,6 +2000,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -2001,7 +2035,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2147,6 +2181,15 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2466,16 +2509,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.42578125" style="53" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="53" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="53" customWidth="1"/>
     <col min="3" max="3" width="61.7109375" style="53" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" style="53" customWidth="1"/>
     <col min="5" max="5" width="7.85546875" style="53" customWidth="1"/>
@@ -2529,7 +2572,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="E2" s="55"/>
       <c r="F2" s="55">
@@ -2546,10 +2589,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="54" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="E3" s="55">
         <v>5</v>
@@ -2570,10 +2613,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E4" s="55">
         <v>1</v>
@@ -2592,7 +2635,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="53" t="s">
         <v>18</v>
@@ -2603,31 +2646,33 @@
       <c r="H5" s="56"/>
       <c r="I5" s="56"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="53">
+    <row r="6" spans="1:11" s="54" customFormat="1">
+      <c r="A6" s="54">
         <v>5</v>
       </c>
-      <c r="B6" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="53" t="s">
+      <c r="B6" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55">
+        <v>27</v>
+      </c>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
     </row>
     <row r="7" spans="1:11" s="57" customFormat="1">
       <c r="A7" s="57">
         <v>6</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="57" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="E7" s="58">
         <v>2</v>
@@ -2639,31 +2684,39 @@
       <c r="H7" s="58"/>
       <c r="I7" s="58"/>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="53">
+    <row r="8" spans="1:11" s="54" customFormat="1">
+      <c r="A8" s="54">
         <v>7</v>
       </c>
-      <c r="B8" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="53" t="s">
+      <c r="B8" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
+      <c r="E8" s="55">
+        <v>1</v>
+      </c>
+      <c r="F8" s="55">
+        <v>1</v>
+      </c>
+      <c r="G8" s="55">
+        <v>4</v>
+      </c>
+      <c r="H8" s="55">
+        <v>20</v>
+      </c>
+      <c r="I8" s="55"/>
     </row>
     <row r="9" spans="1:11" s="54" customFormat="1">
       <c r="A9" s="54">
         <v>8</v>
       </c>
       <c r="B9" s="54" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C9" s="54" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E9" s="55">
         <v>1</v>
@@ -2684,10 +2737,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="57" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C10" s="57" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="E10" s="58"/>
       <c r="F10" s="58">
@@ -2704,7 +2757,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="53" t="s">
         <v>21</v>
@@ -2720,7 +2773,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="53" t="s">
         <v>22</v>
@@ -2736,10 +2789,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="54" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C13" s="54" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="E13" s="55"/>
       <c r="F13" s="55">
@@ -2758,7 +2811,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="53" t="s">
         <v>23</v>
@@ -2774,10 +2827,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="54" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="E15" s="55"/>
       <c r="F15" s="55"/>
@@ -2794,10 +2847,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="54" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E16" s="55"/>
       <c r="F16" s="55"/>
@@ -2812,7 +2865,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="53" t="s">
         <v>25</v>
@@ -2828,10 +2881,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="54" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="E18" s="55">
         <v>2</v>
@@ -2850,10 +2903,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="54" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C19" s="54" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="E19" s="55"/>
       <c r="F19" s="55"/>
@@ -2865,10 +2918,10 @@
     </row>
     <row r="20" spans="1:9" s="54" customFormat="1">
       <c r="B20" s="54" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C20" s="54" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="E20" s="55"/>
       <c r="F20" s="55"/>
@@ -2880,22 +2933,22 @@
     </row>
     <row r="21" spans="1:9" s="54" customFormat="1">
       <c r="C21" s="54" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="E21" s="55"/>
       <c r="F21" s="55"/>
       <c r="G21" s="55"/>
       <c r="H21" s="55">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="I21" s="55"/>
     </row>
     <row r="22" spans="1:9" s="54" customFormat="1">
       <c r="B22" s="54" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C22" s="54" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="E22" s="55">
         <v>2</v>
@@ -2909,10 +2962,10 @@
     </row>
     <row r="23" spans="1:9" s="54" customFormat="1">
       <c r="B23" s="54" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C23" s="54" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="E23" s="55"/>
       <c r="F23" s="55">
@@ -2929,7 +2982,7 @@
         <v>19</v>
       </c>
       <c r="B24" s="53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="53" t="s">
         <v>27</v>
@@ -2945,7 +2998,7 @@
         <v>20</v>
       </c>
       <c r="B25" s="57" t="s">
-        <v>9</v>
+        <v>609</v>
       </c>
       <c r="C25" s="57" t="s">
         <v>11</v>
@@ -2964,7 +3017,7 @@
         <v>9</v>
       </c>
       <c r="C26" s="53" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="E26" s="56"/>
       <c r="F26" s="56"/>
@@ -2988,79 +3041,93 @@
       <c r="H27" s="58"/>
       <c r="I27" s="58"/>
     </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="53">
+    <row r="28" spans="1:9" s="54" customFormat="1">
+      <c r="A28" s="54">
         <v>23</v>
       </c>
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="53" t="s">
+      <c r="C28" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="53">
+      <c r="E28" s="55"/>
+      <c r="F28" s="55">
+        <v>1</v>
+      </c>
+      <c r="G28" s="55">
+        <v>21</v>
+      </c>
+      <c r="H28" s="55">
+        <v>50</v>
+      </c>
+      <c r="I28" s="55"/>
+    </row>
+    <row r="29" spans="1:9" s="54" customFormat="1">
+      <c r="A29" s="54">
         <v>24</v>
       </c>
-      <c r="B29" s="53" t="s">
+      <c r="B29" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="53" t="s">
+      <c r="C29" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-    </row>
-    <row r="30" spans="1:9" s="57" customFormat="1">
-      <c r="A30" s="57">
+      <c r="E29" s="55"/>
+      <c r="F29" s="55">
+        <v>3</v>
+      </c>
+      <c r="G29" s="55">
+        <v>32</v>
+      </c>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+    </row>
+    <row r="30" spans="1:9" s="62" customFormat="1">
+      <c r="A30" s="62">
         <v>25</v>
       </c>
-      <c r="B30" s="57" t="s">
+      <c r="B30" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="57" t="s">
+      <c r="C30" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="53">
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="63"/>
+    </row>
+    <row r="31" spans="1:9" s="54" customFormat="1">
+      <c r="A31" s="54">
         <v>26</v>
       </c>
-      <c r="B31" s="53" t="s">
+      <c r="B31" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="53" t="s">
+      <c r="C31" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55">
+        <v>1</v>
+      </c>
+      <c r="G31" s="55">
+        <v>16</v>
+      </c>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
     </row>
     <row r="32" spans="1:9" s="57" customFormat="1">
       <c r="A32" s="57">
         <v>27</v>
       </c>
       <c r="B32" s="57" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C32" s="57" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E32" s="58"/>
       <c r="F32" s="58"/>
@@ -3075,10 +3142,10 @@
         <v>28</v>
       </c>
       <c r="B33" s="54" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C33" s="54" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="E33" s="55"/>
       <c r="F33" s="55"/>
@@ -3090,7 +3157,7 @@
       </c>
       <c r="I33" s="55"/>
       <c r="K33" s="54" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -3098,7 +3165,7 @@
         <v>29</v>
       </c>
       <c r="B34" s="53" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C34" s="53" t="s">
         <v>28</v>
@@ -3113,7 +3180,7 @@
       </c>
       <c r="I34" s="56"/>
       <c r="K34" s="53" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -3121,7 +3188,7 @@
         <v>30</v>
       </c>
       <c r="B35" s="53" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C35" s="53" t="s">
         <v>29</v>
@@ -3132,60 +3199,60 @@
       <c r="H35" s="56"/>
       <c r="I35" s="56"/>
     </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="53">
+    <row r="36" spans="1:11" s="57" customFormat="1">
+      <c r="A36" s="57">
+        <v>32</v>
+      </c>
+      <c r="B36" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="53" t="s">
-        <v>466</v>
-      </c>
-      <c r="C36" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
-    </row>
-    <row r="37" spans="1:11" s="57" customFormat="1">
-      <c r="A37" s="57">
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="53">
+        <v>33</v>
+      </c>
+      <c r="B37" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="57" t="s">
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="56"/>
+    </row>
+    <row r="38" spans="1:11" s="57" customFormat="1">
+      <c r="A38" s="57">
         <v>34</v>
       </c>
-      <c r="C37" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="58"/>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="53">
+      <c r="B38" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="53" t="s">
+      <c r="C38" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="56"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="58"/>
     </row>
     <row r="39" spans="1:11" s="57" customFormat="1">
       <c r="A39" s="57">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B39" s="57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C39" s="57" t="s">
         <v>35</v>
@@ -3196,181 +3263,133 @@
       <c r="H39" s="58"/>
       <c r="I39" s="58"/>
     </row>
-    <row r="40" spans="1:11" s="57" customFormat="1">
-      <c r="A40" s="57">
-        <v>35</v>
-      </c>
-      <c r="B40" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="57" t="s">
+    <row r="40" spans="1:11">
+      <c r="A40" s="53">
         <v>36</v>
       </c>
-      <c r="E40" s="58"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="58"/>
-      <c r="H40" s="58"/>
-      <c r="I40" s="58"/>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="53">
+      <c r="B40" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" s="53" t="s">
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="56"/>
+    </row>
+    <row r="41" spans="1:11" s="57" customFormat="1">
+      <c r="A41" s="57">
         <v>37</v>
       </c>
-      <c r="E41" s="56"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="56"/>
-      <c r="I41" s="56"/>
-    </row>
-    <row r="42" spans="1:11" s="57" customFormat="1">
-      <c r="A42" s="57">
+      <c r="B41" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="57" t="s">
+        <v>588</v>
+      </c>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="58"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="53">
+        <v>40</v>
+      </c>
+      <c r="C42" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="57" t="s">
-        <v>591</v>
-      </c>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="58"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="53">
+      <c r="E42" s="56"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="56"/>
+      <c r="I42" s="56"/>
+    </row>
+    <row r="43" spans="1:11" s="57" customFormat="1">
+      <c r="A43" s="57">
+        <v>41</v>
+      </c>
+      <c r="B43" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" s="53" t="s">
+      <c r="C43" s="57" t="s">
+        <v>595</v>
+      </c>
+      <c r="E43" s="58">
+        <v>1</v>
+      </c>
+      <c r="F43" s="58">
+        <v>1</v>
+      </c>
+      <c r="G43" s="58">
+        <v>20</v>
+      </c>
+      <c r="H43" s="58">
+        <v>200</v>
+      </c>
+      <c r="I43" s="58"/>
+    </row>
+    <row r="44" spans="1:11" s="57" customFormat="1">
+      <c r="A44" s="57">
+        <v>42</v>
+      </c>
+      <c r="B44" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="E43" s="56"/>
-      <c r="F43" s="56"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="56"/>
-      <c r="I43" s="56"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="53">
-        <v>39</v>
-      </c>
-      <c r="B44" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="E44" s="56"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="56"/>
-      <c r="I44" s="56"/>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="53">
-        <v>40</v>
-      </c>
-      <c r="C45" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="56"/>
-      <c r="H45" s="56"/>
-      <c r="I45" s="56"/>
-    </row>
-    <row r="46" spans="1:11" s="57" customFormat="1">
-      <c r="A46" s="57">
-        <v>41</v>
-      </c>
-      <c r="B46" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="C46" s="57" t="s">
-        <v>598</v>
-      </c>
-      <c r="E46" s="58">
-        <v>1</v>
-      </c>
-      <c r="F46" s="58">
-        <v>1</v>
-      </c>
-      <c r="G46" s="58">
+      <c r="C44" s="57" t="s">
+        <v>589</v>
+      </c>
+      <c r="E44" s="58"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="58">
+        <v>54</v>
+      </c>
+      <c r="H44" s="58"/>
+      <c r="I44" s="58"/>
+    </row>
+    <row r="45" spans="1:11" s="57" customFormat="1">
+      <c r="A45" s="57">
+        <v>43</v>
+      </c>
+      <c r="B45" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="57" t="s">
+        <v>590</v>
+      </c>
+      <c r="E45" s="58">
+        <v>1</v>
+      </c>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58">
+        <v>11</v>
+      </c>
+      <c r="H45" s="58"/>
+      <c r="I45" s="58"/>
+    </row>
+    <row r="49" spans="3:8" ht="35.25" customHeight="1">
+      <c r="C49" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="59"/>
+      <c r="E49" s="59">
+        <f>SUM(E2:E45)</f>
+        <v>16</v>
+      </c>
+      <c r="F49" s="59">
+        <f t="shared" ref="F49:H49" si="0">SUM(F2:F45)</f>
         <v>20</v>
       </c>
-      <c r="H46" s="58">
-        <v>200</v>
-      </c>
-      <c r="I46" s="58"/>
-    </row>
-    <row r="47" spans="1:11" s="57" customFormat="1">
-      <c r="A47" s="57">
-        <v>42</v>
-      </c>
-      <c r="B47" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="C47" s="57" t="s">
-        <v>592</v>
-      </c>
-      <c r="E47" s="58"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="58">
-        <v>54</v>
-      </c>
-      <c r="H47" s="58"/>
-      <c r="I47" s="58"/>
-    </row>
-    <row r="48" spans="1:11" s="57" customFormat="1">
-      <c r="A48" s="57">
-        <v>43</v>
-      </c>
-      <c r="B48" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="C48" s="57" t="s">
-        <v>593</v>
-      </c>
-      <c r="E48" s="58">
-        <v>1</v>
-      </c>
-      <c r="F48" s="58"/>
-      <c r="G48" s="58">
-        <v>11</v>
-      </c>
-      <c r="H48" s="58"/>
-      <c r="I48" s="58"/>
-    </row>
-    <row r="52" spans="3:8" ht="35.25" customHeight="1">
-      <c r="C52" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="D52" s="59"/>
-      <c r="E52" s="59">
-        <f>SUM(E2:E48)</f>
-        <v>15</v>
-      </c>
-      <c r="F52" s="59">
-        <f t="shared" ref="F52:H52" si="0">SUM(F2:F48)</f>
-        <v>14</v>
-      </c>
-      <c r="G52" s="59">
+      <c r="G49" s="59">
         <f t="shared" si="0"/>
-        <v>501</v>
-      </c>
-      <c r="H52" s="59">
+        <v>601</v>
+      </c>
+      <c r="H49" s="59">
         <f t="shared" si="0"/>
-        <v>440</v>
+        <v>530</v>
       </c>
     </row>
   </sheetData>
@@ -3395,18 +3414,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="64" t="s">
-        <v>575</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
+      <c r="A1" s="67" t="s">
+        <v>572</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
       <c r="E1" s="48"/>
       <c r="F1" s="48"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="47" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B2" s="47"/>
       <c r="C2" s="47">
@@ -3418,7 +3437,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="47" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B3" s="47"/>
       <c r="C3" s="47">
@@ -3430,7 +3449,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="47" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B4" s="47"/>
       <c r="C4" s="47">
@@ -3442,7 +3461,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="47" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B5" s="47"/>
       <c r="C5" s="47">
@@ -3454,7 +3473,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="47" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B6" s="47"/>
       <c r="C6" s="47">
@@ -3466,7 +3485,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="47" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B7" s="47"/>
       <c r="C7" s="47">
@@ -3478,7 +3497,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="47" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B8" s="47"/>
       <c r="C8" s="47">
@@ -3490,7 +3509,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="47" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B9" s="47"/>
       <c r="C9" s="47">
@@ -3502,7 +3521,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="47" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B10" s="47"/>
       <c r="C10" s="47">
@@ -3514,7 +3533,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="47" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B11" s="47"/>
       <c r="C11" s="47">
@@ -3526,7 +3545,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="47" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B12" s="47"/>
       <c r="C12" s="47">
@@ -3538,7 +3557,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="47" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B13" s="47"/>
       <c r="C13" s="47">
@@ -3550,7 +3569,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="47" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B14" s="47"/>
       <c r="C14" s="47">
@@ -3562,7 +3581,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="47" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B15" s="47"/>
       <c r="C15" s="47">
@@ -3574,7 +3593,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="47" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B16" s="47"/>
       <c r="C16" s="47">
@@ -3586,7 +3605,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="47" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C17" s="47">
         <v>1</v>
@@ -3594,7 +3613,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="47" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C18" s="47">
         <v>1</v>
@@ -3602,7 +3621,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="47" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C19" s="47">
         <v>1</v>
@@ -3610,7 +3629,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="47" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C20" s="47">
         <v>1</v>
@@ -3618,7 +3637,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="47" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C21" s="47">
         <v>1</v>
@@ -3626,7 +3645,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="47" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C22" s="47">
         <v>1</v>
@@ -3634,7 +3653,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="47" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C23" s="47">
         <v>1</v>
@@ -3642,7 +3661,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="47" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C24" s="47">
         <v>1</v>
@@ -3650,7 +3669,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="47" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C25" s="47">
         <v>1</v>
@@ -3658,7 +3677,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="47" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C26" s="47">
         <v>1</v>
@@ -3666,7 +3685,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="47" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C27" s="47">
         <v>1</v>
@@ -3674,7 +3693,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="47" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C28" s="47">
         <v>1</v>
@@ -3706,19 +3725,19 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25">
-      <c r="A1" s="65" t="s">
-        <v>399</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
+      <c r="A1" s="68" t="s">
+        <v>396</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
     </row>
     <row r="2" spans="1:11" ht="23.25">
       <c r="A2" s="39"/>
@@ -3738,7 +3757,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C3" s="38"/>
       <c r="D3" s="38"/>
@@ -3766,7 +3785,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -3775,10 +3794,10 @@
         <v>32</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H5" s="41" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="I5" s="39"/>
     </row>
@@ -3787,7 +3806,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C6" s="38"/>
       <c r="D6" s="38"/>
@@ -3796,10 +3815,10 @@
         <v>33</v>
       </c>
       <c r="G6" s="39" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="H6" s="41" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="I6" s="39"/>
     </row>
@@ -3808,7 +3827,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
@@ -3817,10 +3836,10 @@
         <v>34</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="H7" s="41" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="I7" s="39"/>
     </row>
@@ -3829,7 +3848,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="38"/>
@@ -3838,10 +3857,10 @@
         <v>35</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H8" s="41" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="I8" s="39"/>
     </row>
@@ -3850,7 +3869,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C9" s="38"/>
       <c r="D9" s="38"/>
@@ -3859,7 +3878,7 @@
         <v>36</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H9" s="38"/>
       <c r="I9" s="38"/>
@@ -3869,7 +3888,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C10" s="38"/>
       <c r="D10" s="38"/>
@@ -3878,7 +3897,7 @@
         <v>37</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="H10" s="38"/>
       <c r="I10" s="38"/>
@@ -3888,7 +3907,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C11" s="38"/>
       <c r="D11" s="38"/>
@@ -3897,7 +3916,7 @@
         <v>38</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="H11" s="38"/>
       <c r="I11" s="38"/>
@@ -3907,7 +3926,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C12" s="38"/>
       <c r="D12" s="38"/>
@@ -3916,7 +3935,7 @@
         <v>39</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H12" s="38"/>
       <c r="I12" s="38"/>
@@ -3926,7 +3945,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C13" s="38"/>
       <c r="D13" s="38"/>
@@ -3935,7 +3954,7 @@
         <v>40</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="H13" s="38"/>
       <c r="I13" s="38"/>
@@ -3945,7 +3964,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C14" s="38"/>
       <c r="D14" s="38"/>
@@ -3954,7 +3973,7 @@
         <v>41</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
@@ -3964,7 +3983,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C15" s="38"/>
       <c r="D15" s="38"/>
@@ -3973,7 +3992,7 @@
         <v>42</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="H15" s="38"/>
       <c r="I15" s="38"/>
@@ -3983,7 +4002,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C16" s="38"/>
       <c r="D16" s="38"/>
@@ -3992,7 +4011,7 @@
         <v>43</v>
       </c>
       <c r="G16" s="39" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="H16" s="38"/>
       <c r="I16" s="38"/>
@@ -4002,7 +4021,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C17" s="38"/>
       <c r="D17" s="38"/>
@@ -4011,7 +4030,7 @@
         <v>44</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="23.25">
@@ -4019,7 +4038,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C18" s="38"/>
       <c r="D18" s="38"/>
@@ -4032,7 +4051,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="38"/>
@@ -4045,7 +4064,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="38"/>
@@ -4058,7 +4077,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C21" s="38"/>
       <c r="D21" s="38"/>
@@ -4071,7 +4090,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C22" s="38"/>
       <c r="D22" s="38"/>
@@ -4084,7 +4103,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C23" s="38"/>
       <c r="D23" s="38"/>
@@ -4097,7 +4116,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C24" s="38"/>
       <c r="D24" s="38"/>
@@ -4110,7 +4129,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C25" s="38"/>
       <c r="D25" s="38"/>
@@ -4123,7 +4142,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C26" s="38"/>
       <c r="D26" s="38"/>
@@ -4136,7 +4155,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C27" s="38"/>
       <c r="D27" s="38"/>
@@ -4149,7 +4168,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="39" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C28" s="38"/>
       <c r="D28" s="38"/>
@@ -4162,7 +4181,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C29" s="38"/>
       <c r="D29" s="38"/>
@@ -4175,7 +4194,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C30" s="38"/>
       <c r="D30" s="38"/>
@@ -4188,7 +4207,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C31" s="38"/>
       <c r="D31" s="38"/>
@@ -4201,7 +4220,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="39" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C32" s="38"/>
       <c r="D32" s="38"/>
@@ -4214,7 +4233,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="23.25">
@@ -4222,7 +4241,7 @@
         <v>30</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="23.25">
@@ -4230,7 +4249,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4268,24 +4287,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15">
-      <c r="A1" s="63" t="s">
-        <v>465</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
+      <c r="A1" s="66" t="s">
+        <v>462</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>5</v>
@@ -4302,10 +4321,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
@@ -4319,10 +4338,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
@@ -4335,10 +4354,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
@@ -4351,10 +4370,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
@@ -4367,10 +4386,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
@@ -4383,10 +4402,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
@@ -4399,10 +4418,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
@@ -4415,10 +4434,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
@@ -4431,10 +4450,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
@@ -4447,10 +4466,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
@@ -4484,7 +4503,7 @@
     <row r="15" spans="1:6">
       <c r="A15" s="28"/>
       <c r="B15" s="36" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C15" s="37">
         <v>0</v>
@@ -4523,24 +4542,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15">
-      <c r="A1" s="63" t="s">
-        <v>580</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
+      <c r="A1" s="66" t="s">
+        <v>577</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>5</v>
@@ -4557,7 +4576,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="46">
@@ -4571,7 +4590,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C4" s="33"/>
       <c r="D4" s="46">
@@ -4585,7 +4604,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C5" s="33"/>
       <c r="D5" s="46"/>
@@ -4599,7 +4618,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C6" s="33"/>
       <c r="D6" s="46"/>
@@ -4613,7 +4632,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C7" s="33"/>
       <c r="D7" s="46"/>
@@ -4627,7 +4646,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C8" s="33"/>
       <c r="D8" s="46"/>
@@ -4641,7 +4660,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C9" s="33"/>
       <c r="D9" s="46"/>
@@ -4655,7 +4674,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C10" s="33"/>
       <c r="D10" s="46"/>
@@ -4669,7 +4688,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C11" s="33"/>
       <c r="D11" s="46"/>
@@ -4683,7 +4702,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C12" s="33"/>
       <c r="D12" s="46"/>
@@ -4697,7 +4716,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C13" s="33"/>
       <c r="D13" s="46"/>
@@ -4711,7 +4730,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="46"/>
@@ -4746,7 +4765,7 @@
     <row r="17" spans="1:3">
       <c r="A17" s="46"/>
       <c r="B17" s="36" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C17" s="37">
         <v>0</v>
@@ -4771,7 +4790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
@@ -4786,24 +4805,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15">
-      <c r="A1" s="63" t="s">
-        <v>506</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
+      <c r="A1" s="66" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>5</v>
@@ -4820,10 +4839,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D3" s="46">
         <f>SUM(A3:C3)</f>
@@ -4836,10 +4855,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D4" s="46">
         <v>1</v>
@@ -4852,10 +4871,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D5" s="46"/>
       <c r="E5" s="46"/>
@@ -4868,10 +4887,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D6" s="46"/>
       <c r="E6" s="46"/>
@@ -4884,10 +4903,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D7" s="46"/>
       <c r="E7" s="46"/>
@@ -4900,10 +4919,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D8" s="46"/>
       <c r="E8" s="46"/>
@@ -4916,10 +4935,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D9" s="46"/>
       <c r="E9" s="46"/>
@@ -4932,10 +4951,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="47" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D10" s="46"/>
       <c r="E10" s="46"/>
@@ -4948,10 +4967,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D11" s="46"/>
       <c r="E11" s="46"/>
@@ -4964,10 +4983,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D12" s="46"/>
       <c r="E12" s="46"/>
@@ -4980,10 +4999,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D13" s="46"/>
       <c r="E13" s="46"/>
@@ -4996,10 +5015,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D14" s="46"/>
       <c r="E14" s="46"/>
@@ -5012,10 +5031,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D15" s="46"/>
       <c r="E15" s="46"/>
@@ -5028,10 +5047,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D16" s="46"/>
       <c r="E16" s="46"/>
@@ -5044,10 +5063,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D17" s="46"/>
       <c r="E17" s="46"/>
@@ -5060,10 +5079,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="47" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D18" s="46"/>
       <c r="E18" s="46"/>
@@ -5076,10 +5095,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="47" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D19" s="46"/>
       <c r="E19" s="46"/>
@@ -5092,10 +5111,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="47" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D20" s="46"/>
       <c r="E20" s="46"/>
@@ -5108,10 +5127,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="47" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D21" s="46"/>
       <c r="E21" s="46"/>
@@ -5124,10 +5143,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="47" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D22" s="46"/>
       <c r="E22" s="46"/>
@@ -5140,10 +5159,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="47" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D23" s="46"/>
       <c r="E23" s="46"/>
@@ -5156,10 +5175,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="47" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D24" s="46"/>
       <c r="E24" s="46"/>
@@ -5172,10 +5191,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="47" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D25" s="46"/>
       <c r="E25" s="46"/>
@@ -5188,10 +5207,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="47" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D26" s="46"/>
       <c r="E26" s="46"/>
@@ -5204,10 +5223,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="47" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D27" s="46"/>
       <c r="E27" s="46"/>
@@ -5220,10 +5239,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="47" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D28" s="46"/>
       <c r="E28" s="46"/>
@@ -5236,10 +5255,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="47" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D29" s="46"/>
       <c r="E29" s="46"/>
@@ -5252,10 +5271,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D30" s="46"/>
       <c r="E30" s="46"/>
@@ -5268,10 +5287,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="47" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D31" s="46"/>
       <c r="E31" s="46"/>
@@ -5284,10 +5303,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="47" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D32" s="46"/>
       <c r="E32" s="46"/>
@@ -5300,10 +5319,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="47" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D33" s="46"/>
       <c r="E33" s="46"/>
@@ -5316,10 +5335,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="47" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D34" s="46"/>
       <c r="E34" s="46"/>
@@ -5332,10 +5351,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="47" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D35" s="46"/>
       <c r="E35" s="46"/>
@@ -5348,10 +5367,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="47" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C36" s="33" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D36" s="46"/>
       <c r="E36" s="46"/>
@@ -5364,7 +5383,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="47" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C37" s="33"/>
       <c r="D37" s="46"/>
@@ -5378,7 +5397,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="47" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C38" s="33"/>
       <c r="D38" s="46"/>
@@ -5392,10 +5411,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="47" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D39" s="46"/>
       <c r="E39" s="46"/>
@@ -5408,10 +5427,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="47" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D40" s="46"/>
       <c r="E40" s="46"/>
@@ -5438,7 +5457,7 @@
     <row r="42" spans="1:6">
       <c r="A42" s="46"/>
       <c r="B42" s="36" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C42" s="37">
         <v>0</v>
@@ -5464,7 +5483,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24"/>
@@ -5478,24 +5497,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15">
-      <c r="A1" s="63" t="s">
-        <v>569</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
+      <c r="A1" s="66" t="s">
+        <v>566</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>5</v>
@@ -5512,10 +5531,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D3" s="46"/>
       <c r="E3" s="46">
@@ -5659,7 +5678,7 @@
     <row r="17" spans="1:3">
       <c r="A17" s="46"/>
       <c r="B17" s="36" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C17" s="37">
         <v>30</v>
@@ -5671,6 +5690,206 @@
     <row r="19" spans="1:3" ht="15">
       <c r="A19" s="46"/>
       <c r="B19" s="45"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="24"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" style="50" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" style="33" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="50" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="50" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="50" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="50"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15">
+      <c r="A1" s="66" t="s">
+        <v>608</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="25.5" customHeight="1">
+      <c r="A3" s="61">
+        <v>1</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>599</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="61">
+        <v>1</v>
+      </c>
+      <c r="E3" s="61"/>
+    </row>
+    <row r="4" spans="1:6" ht="28.5" customHeight="1">
+      <c r="A4" s="61">
+        <v>2</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>598</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61">
+        <v>1</v>
+      </c>
+      <c r="F4" s="61"/>
+    </row>
+    <row r="5" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A5" s="61">
+        <v>3</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>600</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>601</v>
+      </c>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="23.25" customHeight="1">
+      <c r="A6" s="61">
+        <v>4</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>602</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>603</v>
+      </c>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="27" customHeight="1">
+      <c r="A7" s="61">
+        <v>5</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>604</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>605</v>
+      </c>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="22.5" customHeight="1">
+      <c r="A8" s="61">
+        <v>6</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>607</v>
+      </c>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="22.5" customHeight="1">
+      <c r="A9" s="61">
+        <v>7</v>
+      </c>
+      <c r="B9" s="47"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+    </row>
+    <row r="10" spans="1:6" ht="36.75" customHeight="1">
+      <c r="A10" s="61"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+    </row>
+    <row r="11" spans="1:6" ht="30" customHeight="1">
+      <c r="A11" s="61"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="30">
+        <f>SUM(D3:D10)</f>
+        <v>1</v>
+      </c>
+      <c r="E11" s="30">
+        <f>SUM(E3:E10)</f>
+        <v>1</v>
+      </c>
+      <c r="F11" s="30">
+        <f>SUM(F3:F10)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="61"/>
+      <c r="B12" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="C12" s="37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="61"/>
+    </row>
+    <row r="14" spans="1:6" ht="15">
+      <c r="A14" s="61"/>
+      <c r="B14" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5684,8 +5903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
@@ -5698,24 +5917,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" customHeight="1">
-      <c r="A1" s="61" t="s">
-        <v>589</v>
-      </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
+      <c r="A1" s="64" t="s">
+        <v>586</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
     </row>
     <row r="2" spans="1:6" ht="21" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>5</v>
@@ -5732,10 +5951,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
@@ -5748,10 +5967,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -5764,10 +5983,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -5780,10 +5999,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -5796,10 +6015,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4">
@@ -5812,10 +6031,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4">
@@ -5828,10 +6047,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4">
@@ -5844,10 +6063,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -5860,10 +6079,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -5876,10 +6095,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -5892,10 +6111,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -5908,10 +6127,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -5924,10 +6143,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -5940,10 +6159,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -5956,10 +6175,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -5972,10 +6191,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -5988,10 +6207,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -6004,10 +6223,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -6020,10 +6239,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -6036,10 +6255,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -6052,10 +6271,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -6068,10 +6287,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -6084,10 +6303,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -6100,10 +6319,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -6116,10 +6335,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -6132,10 +6351,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -6148,10 +6367,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -6164,10 +6383,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -6180,10 +6399,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -6196,10 +6415,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -6212,7 +6431,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="4"/>
@@ -6226,10 +6445,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -6242,10 +6461,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -6258,10 +6477,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -6274,10 +6493,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4">
@@ -6290,10 +6509,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4">
@@ -6306,10 +6525,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -6322,10 +6541,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -6338,10 +6557,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -6354,10 +6573,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -6370,10 +6589,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -6386,10 +6605,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -6402,7 +6621,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="4">
@@ -6416,10 +6635,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D46" s="26"/>
       <c r="E46" s="26">
@@ -6432,10 +6651,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D47" s="26"/>
       <c r="E47" s="26"/>
@@ -6448,10 +6667,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D48" s="26"/>
       <c r="E48" s="26"/>
@@ -6464,10 +6683,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D49" s="26"/>
       <c r="E49" s="26"/>
@@ -6654,24 +6873,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="61" t="s">
-        <v>590</v>
-      </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
+      <c r="A1" s="64" t="s">
+        <v>587</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -6688,10 +6907,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E3" s="24"/>
       <c r="F3" s="4">
@@ -6703,10 +6922,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E4" s="24"/>
       <c r="F4" s="24">
@@ -6718,10 +6937,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E5" s="24">
         <v>1</v>
@@ -6733,10 +6952,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E6" s="24"/>
       <c r="F6" s="24">
@@ -6748,7 +6967,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E7" s="49">
         <v>1</v>
@@ -6780,25 +6999,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="61" t="s">
-        <v>283</v>
-      </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
+      <c r="A1" s="64" t="s">
+        <v>280</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
     </row>
     <row r="2" spans="1:7" s="13" customFormat="1">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>5</v>
@@ -6815,10 +7034,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -6830,10 +7049,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -6844,10 +7063,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" t="s">
         <v>110</v>
-      </c>
-      <c r="C5" t="s">
-        <v>113</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -6858,10 +7077,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -6872,10 +7091,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -6886,10 +7105,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -6900,10 +7119,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -6914,10 +7133,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -6928,10 +7147,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -6942,10 +7161,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -7187,43 +7406,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="7" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A1" s="62" t="s">
-        <v>138</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
+      <c r="A1" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
     </row>
     <row r="2" spans="1:7" s="7" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A2" s="62" t="s">
-        <v>284</v>
-      </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
+      <c r="A2" s="65" t="s">
+        <v>281</v>
+      </c>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
     </row>
     <row r="3" spans="1:7" s="16" customFormat="1" ht="23.25" customHeight="1">
       <c r="A3" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G3" s="16" t="s">
         <v>3</v>
@@ -7231,13 +7450,13 @@
     </row>
     <row r="4" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A4" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="10">
@@ -7252,13 +7471,13 @@
     </row>
     <row r="5" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D5" s="9"/>
       <c r="G5" s="10">
@@ -7267,13 +7486,13 @@
     </row>
     <row r="6" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D6" s="9"/>
       <c r="G6" s="10">
@@ -7282,13 +7501,13 @@
     </row>
     <row r="7" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D7" s="9"/>
       <c r="G7" s="10">
@@ -7297,13 +7516,13 @@
     </row>
     <row r="8" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A8" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D8" s="9"/>
       <c r="G8" s="10">
@@ -7312,13 +7531,13 @@
     </row>
     <row r="9" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A9" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D9" s="9"/>
       <c r="G9" s="10">
@@ -7327,13 +7546,13 @@
     </row>
     <row r="10" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A10" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D10" s="9"/>
       <c r="G10" s="10">
@@ -7342,13 +7561,13 @@
     </row>
     <row r="11" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A11" s="8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D11" s="9"/>
       <c r="G11" s="10">
@@ -7357,13 +7576,13 @@
     </row>
     <row r="12" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D12" s="9"/>
       <c r="G12" s="10">
@@ -7372,13 +7591,13 @@
     </row>
     <row r="13" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D13" s="9"/>
       <c r="G13" s="10">
@@ -7387,13 +7606,13 @@
     </row>
     <row r="14" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D14" s="9"/>
       <c r="G14" s="10">
@@ -7402,13 +7621,13 @@
     </row>
     <row r="15" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D15" s="9"/>
       <c r="G15" s="10">
@@ -7417,13 +7636,13 @@
     </row>
     <row r="16" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A16" s="8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D16" s="9"/>
       <c r="G16" s="10">
@@ -7432,16 +7651,16 @@
     </row>
     <row r="17" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A17" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>180</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>183</v>
       </c>
       <c r="G17" s="10">
         <v>1</v>
@@ -7449,13 +7668,13 @@
     </row>
     <row r="18" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A18" s="8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D18" s="9"/>
       <c r="G18" s="10">
@@ -7464,16 +7683,16 @@
     </row>
     <row r="19" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A19" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>187</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>190</v>
       </c>
       <c r="G19" s="10">
         <v>1</v>
@@ -7481,13 +7700,13 @@
     </row>
     <row r="20" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D20" s="9"/>
       <c r="G20" s="10">
@@ -7496,13 +7715,13 @@
     </row>
     <row r="21" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A21" s="8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D21" s="9"/>
       <c r="G21" s="10">
@@ -7511,13 +7730,13 @@
     </row>
     <row r="22" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D22" s="9"/>
       <c r="G22" s="10">
@@ -7526,16 +7745,16 @@
     </row>
     <row r="23" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A23" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>200</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>203</v>
       </c>
       <c r="G23" s="10">
         <v>1</v>
@@ -7543,13 +7762,13 @@
     </row>
     <row r="24" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A24" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D24" s="9"/>
       <c r="G24" s="10">
@@ -7558,16 +7777,16 @@
     </row>
     <row r="25" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A25" s="8" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G25" s="10">
         <v>1</v>
@@ -7575,13 +7794,13 @@
     </row>
     <row r="26" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D26" s="9"/>
       <c r="G26" s="10">
@@ -7590,13 +7809,13 @@
     </row>
     <row r="27" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A27" s="8" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D27" s="9"/>
       <c r="G27" s="10">
@@ -7605,13 +7824,13 @@
     </row>
     <row r="28" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A28" s="8" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D28" s="9"/>
       <c r="G28" s="10">
@@ -7620,13 +7839,13 @@
     </row>
     <row r="29" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A29" s="8" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D29" s="9"/>
       <c r="G29" s="10">
@@ -7635,13 +7854,13 @@
     </row>
     <row r="30" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A30" s="8" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D30" s="9"/>
       <c r="G30" s="10">
@@ -7650,13 +7869,13 @@
     </row>
     <row r="31" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A31" s="8" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D31" s="9"/>
       <c r="G31" s="10">
@@ -8734,24 +8953,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="61" t="s">
-        <v>285</v>
-      </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
+      <c r="A1" s="64" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>5</v>
@@ -8768,10 +8987,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D3" s="4">
         <f>SUM(A3:C3)</f>
@@ -8785,10 +9004,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -8801,10 +9020,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -8817,10 +9036,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -8833,10 +9052,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -8849,10 +9068,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C8" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -8865,10 +9084,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C9" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -8881,10 +9100,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C10" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -8897,10 +9116,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C11" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -8913,10 +9132,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C12" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -8929,10 +9148,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C13" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -8956,7 +9175,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="B16" s="20" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C16" s="21">
         <v>20</v>
@@ -8988,24 +9207,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="61" t="s">
-        <v>286</v>
-      </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
+      <c r="A1" s="64" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>5</v>
@@ -9022,10 +9241,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4">
@@ -9038,10 +9257,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4">
@@ -9053,7 +9272,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="4"/>
@@ -9067,10 +9286,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -9083,10 +9302,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -9099,10 +9318,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -9115,10 +9334,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -9131,10 +9350,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -9147,7 +9366,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -9160,7 +9379,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -9173,7 +9392,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -9186,10 +9405,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
@@ -9215,7 +9434,7 @@
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="20" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C17" s="21">
         <v>0</v>
@@ -9248,24 +9467,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="61" t="s">
-        <v>287</v>
-      </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
+      <c r="A1" s="64" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>5</v>
@@ -9282,10 +9501,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4">
@@ -9298,10 +9517,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4">
@@ -9313,10 +9532,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C5" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -9329,10 +9548,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C6" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -9345,10 +9564,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -9361,10 +9580,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C8" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -9377,10 +9596,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C9" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -9393,10 +9612,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C10" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -9409,10 +9628,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C11" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -9425,10 +9644,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -9441,10 +9660,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C13" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -9457,10 +9676,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C14" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -9473,10 +9692,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C15" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -9489,10 +9708,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C16" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -9505,10 +9724,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C17" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -9521,10 +9740,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C18" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -9537,10 +9756,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C19" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -9553,10 +9772,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C20" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -9569,10 +9788,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C21" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -9585,10 +9804,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C22" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -9601,10 +9820,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C23" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -9617,10 +9836,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C24" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -9633,10 +9852,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C25" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -9649,10 +9868,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C26" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -9665,10 +9884,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C27" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -9681,10 +9900,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C28" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -9697,10 +9916,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C29" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -9713,10 +9932,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C30" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -9729,10 +9948,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C31" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -9745,10 +9964,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C32" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -9761,10 +9980,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C33" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -9777,10 +9996,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C34" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -9793,10 +10012,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C35" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -9816,7 +10035,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="B38" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D38" s="18">
         <f>SUM(D4:D13)</f>
@@ -9833,7 +10052,7 @@
     </row>
     <row r="39" spans="1:6">
       <c r="B39" s="20" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C39" s="21">
         <v>20</v>
@@ -9869,24 +10088,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15">
-      <c r="A1" s="63" t="s">
-        <v>365</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
+      <c r="A1" s="66" t="s">
+        <v>362</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>5</v>
@@ -9903,10 +10122,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
@@ -9920,10 +10139,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
@@ -9936,10 +10155,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
@@ -9952,10 +10171,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
@@ -9968,10 +10187,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
@@ -9984,10 +10203,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
@@ -10000,10 +10219,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
@@ -10016,10 +10235,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
@@ -10032,10 +10251,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
@@ -10048,10 +10267,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
@@ -10064,10 +10283,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
@@ -10080,10 +10299,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
@@ -10096,7 +10315,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C15" s="33"/>
       <c r="D15" s="28"/>
@@ -10110,10 +10329,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
@@ -10126,10 +10345,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
@@ -10142,10 +10361,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D18" s="28"/>
       <c r="E18" s="28"/>
@@ -10158,10 +10377,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D19" s="28"/>
       <c r="E19" s="28"/>
@@ -10174,10 +10393,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D20" s="28"/>
       <c r="E20" s="28"/>
@@ -10211,7 +10430,7 @@
     <row r="23" spans="1:6">
       <c r="A23" s="28"/>
       <c r="B23" s="36" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C23" s="37">
         <v>0</v>
